--- a/TopSky_Developer_Guide_Settings.xlsx
+++ b/TopSky_Developer_Guide_Settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juha\Documents\Office Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\EuroScope\ENOR-Norway-NC-Full-Package\ENOR\Plugins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBC5295-27D6-4864-9B31-426FC2DD005E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2C8A4A-8192-44F1-A2A0-C5753708A115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TopSky 2.4" sheetId="1" r:id="rId1"/>
@@ -5753,7 +5753,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="328">
@@ -7819,7 +7819,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8143,10 +8143,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="6" customWidth="1"/>
@@ -23950,7 +23950,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -25075,7 +25075,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
@@ -25924,7 +25924,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">

--- a/TopSky_Developer_Guide_Settings.xlsx
+++ b/TopSky_Developer_Guide_Settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juha\Documents\Office Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\EuroScope\ENOR-Norway-NC-DEV\ENOR\Plugins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3CBB8F-B17B-4BDD-99A6-3E5932613E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12DEF7E-CC7F-440D-9855-A4964DA08C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15060" yWindow="5100" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TopSky 2.4" sheetId="1" r:id="rId1"/>
@@ -5583,7 +5583,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="330">
@@ -7667,7 +7667,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7990,14 +7990,14 @@
   <dimension ref="A1:K866"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B453" sqref="B453"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="137.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="5" customWidth="1"/>
     <col min="6" max="11" width="13.7109375" style="2" customWidth="1"/>
@@ -23421,7 +23421,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -24541,7 +24540,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
@@ -25431,7 +25430,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">

--- a/TopSky_Developer_Guide_Settings.xlsx
+++ b/TopSky_Developer_Guide_Settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juha\Documents\Office Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E96CE8-F7A9-4D55-BE4C-264B799F91C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ADFE31-0E01-455A-911D-06A3D5582E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="300" windowWidth="28035" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10155" yWindow="150" windowWidth="28035" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TopSky 2.4" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="1890">
   <si>
     <t>Color_Active_Map</t>
   </si>
@@ -4888,9 +4888,6 @@
     <t>Window_CARD_MaxConflicts</t>
   </si>
   <si>
-    <t>Maximum number of conflicts displayed (not operational yet…)</t>
-  </si>
-  <si>
     <t>RDF_Accuracy_Degrees</t>
   </si>
   <si>
@@ -5693,6 +5690,21 @@
   </si>
   <si>
     <t>Label_No_DRC_Sel</t>
+  </si>
+  <si>
+    <t>Window_PDC_SetASSR</t>
+  </si>
+  <si>
+    <t>Opening the PDC Window automatically assigns an ASSR code if not assigned before</t>
+  </si>
+  <si>
+    <t>Window_PDC_SetCFL</t>
+  </si>
+  <si>
+    <t>Opening the PDC Window automatically sets a pre-defined (see airspace data file) cleared level if no cleared level has been set before</t>
+  </si>
+  <si>
+    <t>Maximum number of conflicts displayed (no effect yet, setting name only defined for future use…)</t>
   </si>
 </sst>
 </file>
@@ -5805,7 +5817,14 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="516">
+  <dxfs count="517">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9328,7 +9347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K924"/>
+  <dimension ref="A1:K926"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -9608,13 +9627,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>1711</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" t="s">
         <v>1712</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1713</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>151</v>
@@ -9631,10 +9650,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>1714</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>1715</v>
       </c>
       <c r="C15" t="s">
         <v>136</v>
@@ -9718,10 +9737,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C18" t="s">
         <v>157</v>
@@ -9753,10 +9772,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C19" t="s">
         <v>157</v>
@@ -9837,7 +9856,7 @@
         <v>138</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>932</v>
@@ -9877,7 +9896,7 @@
         <v>997</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -9997,7 +10016,7 @@
         <v>639</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>638</v>
@@ -10079,10 +10098,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>1743</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>1744</v>
       </c>
       <c r="C36" t="s">
         <v>136</v>
@@ -10236,10 +10255,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C45" t="s">
         <v>136</v>
@@ -10253,7 +10272,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>519</v>
@@ -10273,10 +10292,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>1674</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>1675</v>
       </c>
       <c r="C47" t="s">
         <v>1445</v>
@@ -10809,7 +10828,7 @@
         <v>137</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>1177</v>
@@ -11166,7 +11185,7 @@
         <v>137</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>623</v>
@@ -11183,7 +11202,7 @@
         <v>137</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>621</v>
@@ -11200,7 +11219,7 @@
         <v>137</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>64</v>
@@ -11268,10 +11287,10 @@
         <v>137</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -11356,7 +11375,7 @@
         <v>72</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -11390,7 +11409,7 @@
         <v>66</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -11407,7 +11426,7 @@
         <v>54</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -11438,7 +11457,7 @@
         <v>137</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>1252</v>
@@ -11472,7 +11491,7 @@
         <v>137</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>1189</v>
@@ -11509,7 +11528,7 @@
         <v>1069</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -11543,7 +11562,7 @@
         <v>1071</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -11560,7 +11579,7 @@
         <v>1072</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -11577,7 +11596,7 @@
         <v>1073</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -11599,7 +11618,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>593</v>
@@ -11608,10 +11627,10 @@
         <v>137</v>
       </c>
       <c r="F121" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>1844</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -11832,7 +11851,7 @@
         <v>59</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -11939,7 +11958,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>593</v>
@@ -11948,10 +11967,10 @@
         <v>137</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -12067,7 +12086,7 @@
         <v>137</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>1243</v>
@@ -12075,7 +12094,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>593</v>
@@ -12220,7 +12239,7 @@
         <v>137</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>1206</v>
@@ -12237,7 +12256,7 @@
         <v>137</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>1207</v>
@@ -12330,7 +12349,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>593</v>
@@ -12551,7 +12570,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>593</v>
@@ -12563,7 +12582,7 @@
         <v>77</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -12696,7 +12715,7 @@
         <v>137</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>1264</v>
@@ -12704,7 +12723,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>593</v>
@@ -12713,12 +12732,12 @@
         <v>137</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>593</v>
@@ -12727,12 +12746,12 @@
         <v>137</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>593</v>
@@ -12741,7 +12760,7 @@
         <v>137</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -12860,7 +12879,7 @@
         <v>72</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -12928,7 +12947,7 @@
         <v>1186</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -13146,10 +13165,10 @@
         <v>137</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -13222,7 +13241,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>593</v>
@@ -13231,10 +13250,10 @@
         <v>137</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -13268,7 +13287,7 @@
         <v>73</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -13333,7 +13352,7 @@
         <v>137</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>1266</v>
@@ -14398,10 +14417,10 @@
         <v>98</v>
       </c>
       <c r="B283" s="6" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C283" t="s">
         <v>1669</v>
-      </c>
-      <c r="C283" t="s">
-        <v>1670</v>
       </c>
       <c r="D283" s="5" t="s">
         <v>151</v>
@@ -14971,10 +14990,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B315" s="6" t="s">
         <v>1646</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>1647</v>
       </c>
       <c r="C315" t="s">
         <v>136</v>
@@ -14988,10 +15007,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B316" s="6" t="s">
         <v>1648</v>
-      </c>
-      <c r="B316" s="6" t="s">
-        <v>1649</v>
       </c>
       <c r="C316" t="s">
         <v>136</v>
@@ -16129,10 +16148,10 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B382" s="6" t="s">
         <v>1698</v>
-      </c>
-      <c r="B382" s="6" t="s">
-        <v>1699</v>
       </c>
       <c r="C382" t="s">
         <v>138</v>
@@ -16140,10 +16159,10 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B383" s="6" t="s">
         <v>1700</v>
-      </c>
-      <c r="B383" s="6" t="s">
-        <v>1701</v>
       </c>
       <c r="C383" t="s">
         <v>138</v>
@@ -16151,10 +16170,10 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C384" t="s">
         <v>138</v>
@@ -16162,10 +16181,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C385" t="s">
         <v>138</v>
@@ -16582,7 +16601,7 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B419" s="6" t="s">
         <v>608</v>
@@ -16596,7 +16615,7 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B420" s="6" t="s">
         <v>608</v>
@@ -16610,7 +16629,7 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B421" s="6" t="s">
         <v>608</v>
@@ -16624,7 +16643,7 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B422" s="6" t="s">
         <v>608</v>
@@ -16638,7 +16657,7 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B423" s="6" t="s">
         <v>608</v>
@@ -16652,7 +16671,7 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B425" s="6" t="s">
         <v>608</v>
@@ -16666,7 +16685,7 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B426" s="6" t="s">
         <v>608</v>
@@ -16680,7 +16699,7 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B427" s="6" t="s">
         <v>608</v>
@@ -16694,7 +16713,7 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B428" s="6" t="s">
         <v>608</v>
@@ -16708,7 +16727,7 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B429" s="6" t="s">
         <v>608</v>
@@ -16918,7 +16937,7 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B446" s="6" t="s">
         <v>608</v>
@@ -16932,7 +16951,7 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B447" s="6" t="s">
         <v>608</v>
@@ -16946,7 +16965,7 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B448" s="6" t="s">
         <v>608</v>
@@ -16960,7 +16979,7 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B449" s="6" t="s">
         <v>608</v>
@@ -16974,7 +16993,7 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B450" s="6" t="s">
         <v>608</v>
@@ -16988,7 +17007,7 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B452" s="6" t="s">
         <v>608</v>
@@ -17002,7 +17021,7 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B453" s="6" t="s">
         <v>608</v>
@@ -17016,7 +17035,7 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B454" s="6" t="s">
         <v>608</v>
@@ -17030,7 +17049,7 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B455" s="6" t="s">
         <v>608</v>
@@ -17044,7 +17063,7 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B456" s="6" t="s">
         <v>608</v>
@@ -17254,7 +17273,7 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B473" s="6" t="s">
         <v>608</v>
@@ -17268,7 +17287,7 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B474" s="6" t="s">
         <v>608</v>
@@ -17282,7 +17301,7 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B475" s="6" t="s">
         <v>608</v>
@@ -17296,7 +17315,7 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B476" s="6" t="s">
         <v>608</v>
@@ -17310,7 +17329,7 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B477" s="6" t="s">
         <v>608</v>
@@ -17324,7 +17343,7 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B479" s="6" t="s">
         <v>608</v>
@@ -17338,7 +17357,7 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B480" s="6" t="s">
         <v>608</v>
@@ -17352,7 +17371,7 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B481" s="6" t="s">
         <v>608</v>
@@ -17366,7 +17385,7 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B482" s="6" t="s">
         <v>608</v>
@@ -17380,7 +17399,7 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B483" s="6" t="s">
         <v>608</v>
@@ -17534,7 +17553,7 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B496" s="6" t="s">
         <v>608</v>
@@ -17548,7 +17567,7 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B497" s="6" t="s">
         <v>608</v>
@@ -17562,7 +17581,7 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B498" s="6" t="s">
         <v>608</v>
@@ -17576,7 +17595,7 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B499" s="6" t="s">
         <v>608</v>
@@ -17590,7 +17609,7 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B500" s="6" t="s">
         <v>608</v>
@@ -17604,7 +17623,7 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B502" s="6" t="s">
         <v>608</v>
@@ -17618,7 +17637,7 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B503" s="6" t="s">
         <v>608</v>
@@ -17632,7 +17651,7 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B504" s="6" t="s">
         <v>608</v>
@@ -17646,7 +17665,7 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B505" s="6" t="s">
         <v>608</v>
@@ -17660,7 +17679,7 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B506" s="6" t="s">
         <v>608</v>
@@ -17674,10 +17693,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B508" s="6" t="s">
         <v>1626</v>
-      </c>
-      <c r="B508" s="6" t="s">
-        <v>1627</v>
       </c>
       <c r="C508" t="s">
         <v>136</v>
@@ -17691,10 +17710,10 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B509" s="6" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C509" t="s">
         <v>136</v>
@@ -17708,7 +17727,7 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B510" s="6" t="s">
         <v>1407</v>
@@ -17722,7 +17741,7 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B511" s="6" t="s">
         <v>584</v>
@@ -17745,7 +17764,7 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B512" s="6" t="s">
         <v>610</v>
@@ -17762,7 +17781,7 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B513" s="6" t="s">
         <v>1387</v>
@@ -17776,7 +17795,7 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B514" s="6" t="s">
         <v>1055</v>
@@ -17793,7 +17812,7 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B515" s="6" t="s">
         <v>1053</v>
@@ -17816,10 +17835,10 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B516" s="6" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C516" s="6" t="s">
         <v>144</v>
@@ -17839,10 +17858,10 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B517" s="6" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C517" s="6" t="s">
         <v>144</v>
@@ -17862,10 +17881,10 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C518" s="6" t="s">
         <v>136</v>
@@ -17879,10 +17898,10 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B519" s="6" t="s">
         <v>1632</v>
-      </c>
-      <c r="B519" s="6" t="s">
-        <v>1633</v>
       </c>
       <c r="C519" s="6" t="s">
         <v>136</v>
@@ -17896,10 +17915,10 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B520" s="6" t="s">
         <v>1741</v>
-      </c>
-      <c r="B520" s="6" t="s">
-        <v>1742</v>
       </c>
       <c r="C520" s="6" t="s">
         <v>136</v>
@@ -17919,10 +17938,10 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B521" s="6" t="s">
         <v>1634</v>
-      </c>
-      <c r="B521" s="6" t="s">
-        <v>1635</v>
       </c>
       <c r="C521" s="6" t="s">
         <v>136</v>
@@ -17936,10 +17955,10 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C522" s="6" t="s">
         <v>136</v>
@@ -17953,13 +17972,13 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B523" s="6" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C523" s="6" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D523" s="5" t="s">
         <v>802</v>
@@ -17973,13 +17992,13 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C524" s="6" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D524" s="5" t="s">
         <v>802</v>
@@ -17987,13 +18006,13 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B525" s="6" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C525" s="6" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D525" s="5" t="s">
         <v>802</v>
@@ -18007,13 +18026,13 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B526" s="6" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C526" s="6" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D526" s="5" t="s">
         <v>802</v>
@@ -18021,13 +18040,13 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B527" s="6" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C527" s="6" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D527" s="5" t="s">
         <v>802</v>
@@ -18041,13 +18060,13 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B528" s="6" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C528" s="6" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D528" s="5" t="s">
         <v>802</v>
@@ -18055,13 +18074,13 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C529" s="6" t="s">
         <v>1748</v>
-      </c>
-      <c r="B529" s="6" t="s">
-        <v>1750</v>
-      </c>
-      <c r="C529" s="6" t="s">
-        <v>1749</v>
       </c>
       <c r="D529" s="5" t="s">
         <v>802</v>
@@ -18069,10 +18088,10 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B530" s="6" t="s">
         <v>1751</v>
-      </c>
-      <c r="B530" s="6" t="s">
-        <v>1752</v>
       </c>
       <c r="C530" s="6" t="s">
         <v>144</v>
@@ -18092,10 +18111,10 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B531" s="6" t="s">
         <v>1773</v>
-      </c>
-      <c r="B531" s="6" t="s">
-        <v>1774</v>
       </c>
       <c r="C531" s="6" t="s">
         <v>144</v>
@@ -18115,13 +18134,13 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B532" s="6" t="s">
         <v>1775</v>
       </c>
-      <c r="B532" s="6" t="s">
+      <c r="C532" s="6" t="s">
         <v>1776</v>
-      </c>
-      <c r="C532" s="6" t="s">
-        <v>1777</v>
       </c>
       <c r="D532" s="5" t="s">
         <v>151</v>
@@ -18138,13 +18157,13 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B533" s="6" t="s">
         <v>1815</v>
       </c>
-      <c r="B533" s="6" t="s">
+      <c r="C533" s="6" t="s">
         <v>1816</v>
-      </c>
-      <c r="C533" s="6" t="s">
-        <v>1817</v>
       </c>
       <c r="D533" s="5" t="s">
         <v>151</v>
@@ -18161,13 +18180,13 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B534" s="6" t="s">
         <v>1753</v>
       </c>
-      <c r="B534" s="6" t="s">
-        <v>1754</v>
-      </c>
       <c r="C534" s="6" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D534" s="5" t="s">
         <v>802</v>
@@ -18175,13 +18194,13 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B535" s="6" t="s">
         <v>1755</v>
       </c>
-      <c r="B535" s="6" t="s">
+      <c r="C535" s="6" t="s">
         <v>1756</v>
-      </c>
-      <c r="C535" s="6" t="s">
-        <v>1757</v>
       </c>
       <c r="D535" s="5" t="s">
         <v>802</v>
@@ -18189,13 +18208,13 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B536" s="6" t="s">
         <v>1818</v>
       </c>
-      <c r="B536" s="6" t="s">
-        <v>1819</v>
-      </c>
       <c r="C536" s="6" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D536" s="5" t="s">
         <v>151</v>
@@ -18212,13 +18231,13 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B537" s="6" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C537" s="6" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D537" s="5" t="s">
         <v>802</v>
@@ -18226,13 +18245,13 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B538" s="6" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C538" s="6" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D538" s="5" t="s">
         <v>802</v>
@@ -18722,10 +18741,10 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B568" s="6" t="s">
         <v>1676</v>
-      </c>
-      <c r="B568" s="6" t="s">
-        <v>1677</v>
       </c>
       <c r="C568" t="s">
         <v>1445</v>
@@ -19172,10 +19191,10 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B590" s="6" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C590" t="s">
         <v>136</v>
@@ -19235,7 +19254,7 @@
         <v>1298</v>
       </c>
       <c r="B594" s="6" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C594" t="s">
         <v>177</v>
@@ -19255,10 +19274,10 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B595" s="6" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C595" t="s">
         <v>1570</v>
@@ -19324,13 +19343,13 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B598" s="6" t="s">
         <v>1619</v>
       </c>
-      <c r="B598" s="6" t="s">
+      <c r="C598" t="s">
         <v>1620</v>
-      </c>
-      <c r="C598" t="s">
-        <v>1621</v>
       </c>
       <c r="D598" s="5" t="s">
         <v>802</v>
@@ -20308,10 +20327,10 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B647" s="6" t="s">
         <v>1671</v>
-      </c>
-      <c r="B647" s="6" t="s">
-        <v>1672</v>
       </c>
       <c r="C647" t="s">
         <v>751</v>
@@ -20331,13 +20350,13 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B648" s="6" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C648" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D648" s="5" t="s">
         <v>802</v>
@@ -20345,13 +20364,13 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B649" s="6" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C649" t="s">
         <v>1679</v>
-      </c>
-      <c r="B649" s="6" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C649" t="s">
-        <v>1680</v>
       </c>
       <c r="D649" s="5" t="s">
         <v>802</v>
@@ -20359,13 +20378,13 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B650" s="6" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C650" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D650" s="5" t="s">
         <v>802</v>
@@ -20373,13 +20392,13 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B651" s="6" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C651" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D651" s="5" t="s">
         <v>802</v>
@@ -20610,13 +20629,13 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B664" s="6" t="s">
         <v>1782</v>
       </c>
-      <c r="B664" s="6" t="s">
+      <c r="C664" t="s">
         <v>1783</v>
-      </c>
-      <c r="C664" t="s">
-        <v>1784</v>
       </c>
       <c r="D664" s="5" t="s">
         <v>151</v>
@@ -21966,10 +21985,10 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B734" s="6" t="s">
         <v>1733</v>
-      </c>
-      <c r="B734" s="6" t="s">
-        <v>1734</v>
       </c>
       <c r="C734" t="s">
         <v>136</v>
@@ -22000,13 +22019,13 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B736" s="6" t="s">
         <v>1730</v>
       </c>
-      <c r="B736" s="6" t="s">
+      <c r="C736" t="s">
         <v>1731</v>
-      </c>
-      <c r="C736" t="s">
-        <v>1732</v>
       </c>
       <c r="D736" s="5" t="s">
         <v>151</v>
@@ -22106,7 +22125,7 @@
         <v>999</v>
       </c>
       <c r="B741" s="6" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C741" t="s">
         <v>1000</v>
@@ -22335,10 +22354,10 @@
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B752" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C752" t="s">
         <v>138</v>
@@ -22352,10 +22371,10 @@
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B753" s="6" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C753" t="s">
         <v>144</v>
@@ -22375,10 +22394,10 @@
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B754" s="6" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C754" t="s">
         <v>1158</v>
@@ -22395,10 +22414,10 @@
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B755" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C755" t="s">
         <v>138</v>
@@ -22412,10 +22431,10 @@
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B756" s="6" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C756" t="s">
         <v>144</v>
@@ -22435,10 +22454,10 @@
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B757" s="6" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C757" t="s">
         <v>1158</v>
@@ -22455,10 +22474,10 @@
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B758" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C758" t="s">
         <v>138</v>
@@ -22472,10 +22491,10 @@
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B759" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C759" t="s">
         <v>144</v>
@@ -22495,10 +22514,10 @@
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B760" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C760" t="s">
         <v>1158</v>
@@ -22694,10 +22713,10 @@
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B771" s="6" t="s">
         <v>1644</v>
-      </c>
-      <c r="B771" s="6" t="s">
-        <v>1645</v>
       </c>
       <c r="C771" t="s">
         <v>136</v>
@@ -22711,13 +22730,13 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B772" s="6" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C772" t="s">
         <v>1690</v>
-      </c>
-      <c r="C772" t="s">
-        <v>1691</v>
       </c>
       <c r="D772" s="5" t="s">
         <v>183</v>
@@ -22734,10 +22753,10 @@
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B773" s="6" t="s">
         <v>1746</v>
-      </c>
-      <c r="B773" s="6" t="s">
-        <v>1747</v>
       </c>
       <c r="C773" t="s">
         <v>136</v>
@@ -23374,10 +23393,10 @@
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B808" s="6" t="s">
         <v>1704</v>
-      </c>
-      <c r="B808" s="6" t="s">
-        <v>1705</v>
       </c>
       <c r="C808" t="s">
         <v>165</v>
@@ -23394,10 +23413,10 @@
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B809" s="6" t="s">
         <v>1706</v>
-      </c>
-      <c r="B809" s="6" t="s">
-        <v>1707</v>
       </c>
       <c r="C809" t="s">
         <v>143</v>
@@ -23414,10 +23433,10 @@
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B810" s="6" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C810" t="s">
         <v>165</v>
@@ -23434,10 +23453,10 @@
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B811" s="6" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C811" t="s">
         <v>165</v>
@@ -23454,10 +23473,10 @@
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B812" s="6" t="s">
         <v>1709</v>
-      </c>
-      <c r="B812" s="6" t="s">
-        <v>1710</v>
       </c>
       <c r="C812" t="s">
         <v>136</v>
@@ -23891,16 +23910,16 @@
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B838" s="6" t="s">
         <v>1804</v>
       </c>
-      <c r="B838" s="6" t="s">
+      <c r="C838" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D838" s="5" t="s">
         <v>1805</v>
-      </c>
-      <c r="C838" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D838" s="5" t="s">
-        <v>1806</v>
       </c>
       <c r="E838" s="5" t="s">
         <v>152</v>
@@ -24072,7 +24091,7 @@
         <v>1616</v>
       </c>
       <c r="B846" s="6" t="s">
-        <v>1617</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.25">
@@ -24318,136 +24337,130 @@
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>1292</v>
+        <v>1885</v>
       </c>
       <c r="B858" s="6" t="s">
-        <v>1294</v>
+        <v>1886</v>
       </c>
       <c r="C858" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D858" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E858" s="5" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F858" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G858" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>1293</v>
+        <v>1887</v>
       </c>
       <c r="B859" s="6" t="s">
-        <v>1295</v>
+        <v>1888</v>
       </c>
       <c r="C859" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D859" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E859" s="5" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F859" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G859" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>1812</v>
+        <v>1292</v>
       </c>
       <c r="B860" s="6" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C860" t="s">
-        <v>136</v>
+        <v>1294</v>
+      </c>
+      <c r="C860" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D860" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E860" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="F860" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G860" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>585</v>
+        <v>1293</v>
       </c>
       <c r="B861" s="6" t="s">
-        <v>588</v>
+        <v>1295</v>
       </c>
       <c r="C861" s="6" t="s">
         <v>144</v>
       </c>
       <c r="D861" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E861" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F861" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G861" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>954</v>
+        <v>1811</v>
       </c>
       <c r="B862" s="6" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C862" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D862" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E862" s="5" t="s">
-        <v>156</v>
+        <v>1812</v>
+      </c>
+      <c r="C862" t="s">
+        <v>136</v>
       </c>
       <c r="F862" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G862" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>1013</v>
+        <v>585</v>
       </c>
       <c r="B863" s="6" t="s">
-        <v>1014</v>
+        <v>588</v>
       </c>
       <c r="C863" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
+      </c>
+      <c r="D863" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E863" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="F863" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G863" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>1016</v>
+        <v>954</v>
       </c>
       <c r="B864" s="6" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C864" s="6" t="s">
         <v>146</v>
@@ -24459,44 +24472,38 @@
         <v>156</v>
       </c>
       <c r="F864" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G864" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>586</v>
+        <v>1013</v>
       </c>
       <c r="B865" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="C865" t="s">
-        <v>577</v>
-      </c>
-      <c r="D865" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E865" s="5" t="s">
-        <v>579</v>
+        <v>1014</v>
+      </c>
+      <c r="C865" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="F865" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G865" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>587</v>
+        <v>1016</v>
       </c>
       <c r="B866" s="6" t="s">
-        <v>582</v>
+        <v>1017</v>
       </c>
       <c r="C866" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D866" s="5" t="s">
         <v>149</v>
@@ -24505,181 +24512,199 @@
         <v>156</v>
       </c>
       <c r="F866" s="2">
-        <v>999</v>
+        <v>10</v>
       </c>
       <c r="G866" s="2">
-        <v>999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>1022</v>
+        <v>586</v>
       </c>
       <c r="B867" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C867" s="6" t="s">
-        <v>143</v>
+        <v>578</v>
+      </c>
+      <c r="C867" t="s">
+        <v>577</v>
       </c>
       <c r="D867" s="5" t="s">
         <v>151</v>
       </c>
       <c r="E867" s="5" t="s">
-        <v>156</v>
+        <v>579</v>
       </c>
       <c r="F867" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G867" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>1808</v>
+        <v>587</v>
       </c>
       <c r="B868" s="6" t="s">
-        <v>1809</v>
-      </c>
-      <c r="C868" t="s">
-        <v>1807</v>
+        <v>582</v>
+      </c>
+      <c r="C868" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="D868" s="5" t="s">
-        <v>1806</v>
+        <v>149</v>
       </c>
       <c r="E868" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F868" s="2">
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="G868" s="2">
-        <v>900</v>
+        <v>999</v>
       </c>
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>1810</v>
+        <v>1022</v>
       </c>
       <c r="B869" s="6" t="s">
-        <v>1809</v>
-      </c>
-      <c r="C869" t="s">
-        <v>1807</v>
+        <v>1023</v>
+      </c>
+      <c r="C869" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="D869" s="5" t="s">
-        <v>1806</v>
+        <v>151</v>
       </c>
       <c r="E869" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F869" s="2">
-        <v>3600</v>
+        <v>200</v>
       </c>
       <c r="G869" s="2">
-        <v>3600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
       <c r="B870" s="6" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="C870" t="s">
-        <v>136</v>
+        <v>1806</v>
+      </c>
+      <c r="D870" s="5" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E870" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="F870" s="2">
-        <v>1</v>
+        <v>900</v>
       </c>
       <c r="G870" s="2">
-        <v>1</v>
+        <v>900</v>
       </c>
     </row>
     <row r="871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>590</v>
+        <v>1809</v>
       </c>
       <c r="B871" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C871" s="6" t="s">
-        <v>177</v>
+        <v>1808</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1806</v>
       </c>
       <c r="D871" s="5" t="s">
-        <v>149</v>
+        <v>1805</v>
       </c>
       <c r="E871" s="5" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="F871" s="2">
-        <v>500</v>
+        <v>3600</v>
       </c>
       <c r="G871" s="2">
-        <v>500</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>589</v>
+        <v>1813</v>
       </c>
       <c r="B872" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C872" s="6" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C872" t="s">
+        <v>136</v>
+      </c>
+      <c r="F872" s="2">
+        <v>1</v>
+      </c>
+      <c r="G872" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>590</v>
+      </c>
+      <c r="B873" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C873" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D872" s="5" t="s">
+      <c r="D873" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E872" s="5" t="s">
+      <c r="E873" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F872" s="2">
-        <v>10</v>
-      </c>
-      <c r="G872" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C873" s="6"/>
+      <c r="F873" s="2">
+        <v>500</v>
+      </c>
+      <c r="G873" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>1106</v>
+        <v>589</v>
       </c>
       <c r="B874" s="6" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C874" t="s">
-        <v>1391</v>
+        <v>591</v>
+      </c>
+      <c r="C874" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="D874" s="5" t="s">
-        <v>802</v>
+        <v>149</v>
+      </c>
+      <c r="E874" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F874" s="2">
+        <v>10</v>
+      </c>
+      <c r="G874" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="875" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A875" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B875" s="6" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C875" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D875" s="5" t="s">
-        <v>802</v>
-      </c>
+      <c r="C875" s="6"/>
     </row>
     <row r="876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>1127</v>
+        <v>1106</v>
       </c>
       <c r="B876" s="6" t="s">
-        <v>1128</v>
+        <v>1107</v>
       </c>
       <c r="C876" t="s">
         <v>1391</v>
@@ -24690,10 +24715,10 @@
     </row>
     <row r="877" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>1384</v>
+        <v>1125</v>
       </c>
       <c r="B877" s="6" t="s">
-        <v>1385</v>
+        <v>1126</v>
       </c>
       <c r="C877" t="s">
         <v>1391</v>
@@ -24704,10 +24729,10 @@
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1398</v>
+        <v>1127</v>
       </c>
       <c r="B878" s="6" t="s">
-        <v>1399</v>
+        <v>1128</v>
       </c>
       <c r="C878" t="s">
         <v>1391</v>
@@ -24718,10 +24743,10 @@
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>1114</v>
+        <v>1384</v>
       </c>
       <c r="B879" s="6" t="s">
-        <v>1115</v>
+        <v>1385</v>
       </c>
       <c r="C879" t="s">
         <v>1391</v>
@@ -24732,10 +24757,10 @@
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>1116</v>
+        <v>1398</v>
       </c>
       <c r="B880" s="6" t="s">
-        <v>1117</v>
+        <v>1399</v>
       </c>
       <c r="C880" t="s">
         <v>1391</v>
@@ -24746,10 +24771,10 @@
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>1100</v>
+        <v>1114</v>
       </c>
       <c r="B881" s="6" t="s">
-        <v>1101</v>
+        <v>1115</v>
       </c>
       <c r="C881" t="s">
         <v>1391</v>
@@ -24760,10 +24785,10 @@
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>1098</v>
+        <v>1116</v>
       </c>
       <c r="B882" s="6" t="s">
-        <v>1099</v>
+        <v>1117</v>
       </c>
       <c r="C882" t="s">
         <v>1391</v>
@@ -24774,10 +24799,10 @@
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>1123</v>
+        <v>1100</v>
       </c>
       <c r="B883" s="6" t="s">
-        <v>1124</v>
+        <v>1101</v>
       </c>
       <c r="C883" t="s">
         <v>1391</v>
@@ -24788,10 +24813,10 @@
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="B884" s="6" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="C884" t="s">
         <v>1391</v>
@@ -24802,10 +24827,10 @@
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>1096</v>
+        <v>1123</v>
       </c>
       <c r="B885" s="6" t="s">
-        <v>1097</v>
+        <v>1124</v>
       </c>
       <c r="C885" t="s">
         <v>1391</v>
@@ -24816,10 +24841,10 @@
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>1400</v>
+        <v>1094</v>
       </c>
       <c r="B886" s="6" t="s">
-        <v>1401</v>
+        <v>1095</v>
       </c>
       <c r="C886" t="s">
         <v>1391</v>
@@ -24830,10 +24855,10 @@
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>1394</v>
+        <v>1096</v>
       </c>
       <c r="B887" s="6" t="s">
-        <v>1395</v>
+        <v>1097</v>
       </c>
       <c r="C887" t="s">
         <v>1391</v>
@@ -24844,10 +24869,10 @@
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>1104</v>
+        <v>1400</v>
       </c>
       <c r="B888" s="6" t="s">
-        <v>1105</v>
+        <v>1401</v>
       </c>
       <c r="C888" t="s">
         <v>1391</v>
@@ -24858,13 +24883,13 @@
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>1408</v>
+        <v>1394</v>
       </c>
       <c r="B889" s="6" t="s">
-        <v>1409</v>
+        <v>1395</v>
       </c>
       <c r="C889" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D889" s="5" t="s">
         <v>802</v>
@@ -24872,10 +24897,10 @@
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>1090</v>
+        <v>1104</v>
       </c>
       <c r="B890" s="6" t="s">
-        <v>1091</v>
+        <v>1105</v>
       </c>
       <c r="C890" t="s">
         <v>1391</v>
@@ -24886,10 +24911,10 @@
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>1388</v>
+        <v>1408</v>
       </c>
       <c r="B891" s="6" t="s">
-        <v>1389</v>
+        <v>1409</v>
       </c>
       <c r="C891" t="s">
         <v>1390</v>
@@ -24900,10 +24925,10 @@
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>1396</v>
+        <v>1090</v>
       </c>
       <c r="B892" s="6" t="s">
-        <v>1397</v>
+        <v>1091</v>
       </c>
       <c r="C892" t="s">
         <v>1391</v>
@@ -24914,52 +24939,52 @@
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>1102</v>
+        <v>1388</v>
       </c>
       <c r="B893" s="6" t="s">
-        <v>1103</v>
+        <v>1389</v>
       </c>
       <c r="C893" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D893" s="5" t="s">
         <v>802</v>
       </c>
     </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B894" s="6" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C894" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D894" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="B895" s="6" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="C895" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D895" s="5" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A896" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B896" s="6" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C896" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D896" s="5" t="s">
-        <v>802</v>
-      </c>
-    </row>
     <row r="897" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>1088</v>
+        <v>1108</v>
       </c>
       <c r="B897" s="6" t="s">
-        <v>1089</v>
+        <v>1109</v>
       </c>
       <c r="C897" t="s">
         <v>1393</v>
@@ -24970,10 +24995,10 @@
     </row>
     <row r="898" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>1702</v>
+        <v>1118</v>
       </c>
       <c r="B898" s="6" t="s">
-        <v>1703</v>
+        <v>1119</v>
       </c>
       <c r="C898" t="s">
         <v>1393</v>
@@ -24984,10 +25009,10 @@
     </row>
     <row r="899" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>1281</v>
+        <v>1088</v>
       </c>
       <c r="B899" s="6" t="s">
-        <v>1282</v>
+        <v>1089</v>
       </c>
       <c r="C899" t="s">
         <v>1393</v>
@@ -24998,13 +25023,13 @@
     </row>
     <row r="900" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>1112</v>
+        <v>1701</v>
       </c>
       <c r="B900" s="6" t="s">
-        <v>1113</v>
+        <v>1702</v>
       </c>
       <c r="C900" t="s">
-        <v>1447</v>
+        <v>1393</v>
       </c>
       <c r="D900" s="5" t="s">
         <v>802</v>
@@ -25012,10 +25037,10 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>1130</v>
+        <v>1281</v>
       </c>
       <c r="B901" s="6" t="s">
-        <v>1131</v>
+        <v>1282</v>
       </c>
       <c r="C901" t="s">
         <v>1393</v>
@@ -25026,13 +25051,13 @@
     </row>
     <row r="902" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>1402</v>
+        <v>1112</v>
       </c>
       <c r="B902" s="6" t="s">
-        <v>1403</v>
+        <v>1113</v>
       </c>
       <c r="C902" t="s">
-        <v>1393</v>
+        <v>1447</v>
       </c>
       <c r="D902" s="5" t="s">
         <v>802</v>
@@ -25040,10 +25065,10 @@
     </row>
     <row r="903" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>1404</v>
+        <v>1130</v>
       </c>
       <c r="B903" s="6" t="s">
-        <v>1405</v>
+        <v>1131</v>
       </c>
       <c r="C903" t="s">
         <v>1393</v>
@@ -25054,10 +25079,10 @@
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>1120</v>
+        <v>1402</v>
       </c>
       <c r="B904" s="6" t="s">
-        <v>1121</v>
+        <v>1403</v>
       </c>
       <c r="C904" t="s">
         <v>1393</v>
@@ -25068,10 +25093,10 @@
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>1092</v>
+        <v>1404</v>
       </c>
       <c r="B905" s="6" t="s">
-        <v>1093</v>
+        <v>1405</v>
       </c>
       <c r="C905" t="s">
         <v>1393</v>
@@ -25082,10 +25107,10 @@
     </row>
     <row r="906" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
       <c r="B906" s="6" t="s">
-        <v>1111</v>
+        <v>1121</v>
       </c>
       <c r="C906" t="s">
         <v>1393</v>
@@ -25094,43 +25119,37 @@
         <v>802</v>
       </c>
     </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B907" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D907" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
     <row r="908" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>1693</v>
+        <v>1110</v>
       </c>
       <c r="B908" s="6" t="s">
-        <v>1697</v>
+        <v>1111</v>
       </c>
       <c r="C908" t="s">
-        <v>138</v>
-      </c>
-      <c r="F908" s="15" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G908" s="15" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A909" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B909" s="6" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C909" t="s">
-        <v>138</v>
-      </c>
-      <c r="F909" s="15" t="s">
-        <v>1468</v>
-      </c>
-      <c r="G909" s="15" t="s">
-        <v>1468</v>
+        <v>1393</v>
+      </c>
+      <c r="D908" s="5" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="910" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>1315</v>
+        <v>1692</v>
       </c>
       <c r="B910" s="6" t="s">
         <v>1696</v>
@@ -25138,146 +25157,116 @@
       <c r="C910" t="s">
         <v>138</v>
       </c>
-      <c r="F910" s="2" t="s">
-        <v>1469</v>
-      </c>
-      <c r="G910" s="2" t="s">
-        <v>1469</v>
+      <c r="F910" s="15" t="s">
+        <v>1693</v>
+      </c>
+      <c r="G910" s="15" t="s">
+        <v>1693</v>
       </c>
     </row>
     <row r="911" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B911" s="6" t="s">
-        <v>1317</v>
+        <v>1694</v>
       </c>
       <c r="C911" t="s">
         <v>138</v>
       </c>
-      <c r="F911" s="2" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G911" s="2" t="s">
-        <v>1470</v>
+      <c r="F911" s="15" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G911" s="15" t="s">
+        <v>1468</v>
       </c>
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B912" s="6" t="s">
-        <v>1319</v>
+        <v>1695</v>
       </c>
       <c r="C912" t="s">
-        <v>1320</v>
-      </c>
-      <c r="F912" s="2">
-        <v>256</v>
-      </c>
-      <c r="G912" s="2">
-        <v>256</v>
+        <v>138</v>
+      </c>
+      <c r="F912" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G912" s="2" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="913" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="B913" s="6" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="C913" t="s">
-        <v>144</v>
-      </c>
-      <c r="D913" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E913" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F913" s="2">
-        <v>3</v>
-      </c>
-      <c r="G913" s="2">
-        <v>3</v>
-      </c>
-      <c r="H913" s="2">
-        <v>4</v>
-      </c>
-      <c r="J913" s="2">
-        <v>4</v>
+        <v>138</v>
+      </c>
+      <c r="F913" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G913" s="2" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="914" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="B914" s="6" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="C914" t="s">
-        <v>144</v>
-      </c>
-      <c r="D914" s="5" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E914" s="5" t="s">
-        <v>1327</v>
-      </c>
-      <c r="H914" s="2">
-        <v>59</v>
-      </c>
-      <c r="I914" s="2">
-        <v>64</v>
-      </c>
-      <c r="J914" s="2">
-        <v>56</v>
-      </c>
-      <c r="K914" s="2">
-        <v>63.5</v>
+        <v>1320</v>
+      </c>
+      <c r="F914" s="2">
+        <v>256</v>
+      </c>
+      <c r="G914" s="2">
+        <v>256</v>
       </c>
     </row>
     <row r="915" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="B915" s="6" t="s">
-        <v>1728</v>
+        <v>1322</v>
       </c>
       <c r="C915" t="s">
         <v>144</v>
       </c>
       <c r="D915" s="5" t="s">
-        <v>1326</v>
+        <v>151</v>
       </c>
       <c r="E915" s="5" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="F915" s="2">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="G915" s="2">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="H915" s="2">
-        <v>63</v>
-      </c>
-      <c r="I915" s="2">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="J915" s="2">
-        <v>63</v>
-      </c>
-      <c r="K915" s="2">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="916" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="B916" s="6" t="s">
-        <v>1729</v>
+        <v>1325</v>
       </c>
       <c r="C916" t="s">
         <v>144</v>
@@ -25288,95 +25277,95 @@
       <c r="E916" s="5" t="s">
         <v>1327</v>
       </c>
-      <c r="F916" s="2">
-        <v>-90</v>
-      </c>
-      <c r="G916" s="2">
-        <v>-90</v>
-      </c>
       <c r="H916" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I916" s="2">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="J916" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K916" s="2">
-        <v>51</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="917" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B917" s="6" t="s">
-        <v>1325</v>
+        <v>1727</v>
       </c>
       <c r="C917" t="s">
         <v>144</v>
       </c>
       <c r="D917" s="5" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="E917" s="5" t="s">
-        <v>1336</v>
+        <v>1327</v>
+      </c>
+      <c r="F917" s="2">
+        <v>90</v>
+      </c>
+      <c r="G917" s="2">
+        <v>90</v>
       </c>
       <c r="H917" s="2">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I917" s="2">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="J917" s="2">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="K917" s="2">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="918" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B918" s="6" t="s">
-        <v>1333</v>
+        <v>1728</v>
       </c>
       <c r="C918" t="s">
         <v>144</v>
       </c>
       <c r="D918" s="5" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="E918" s="5" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="F918" s="2">
-        <v>180</v>
+        <v>-90</v>
       </c>
       <c r="G918" s="2">
-        <v>180</v>
+        <v>-90</v>
       </c>
       <c r="H918" s="2">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I918" s="2">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="J918" s="2">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="K918" s="2">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="919" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B919" s="6" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="C919" t="s">
         <v>144</v>
@@ -25387,123 +25376,141 @@
       <c r="E919" s="5" t="s">
         <v>1336</v>
       </c>
-      <c r="F919" s="2">
-        <v>-180</v>
-      </c>
-      <c r="G919" s="2">
-        <v>-180</v>
-      </c>
       <c r="H919" s="2">
+        <v>24</v>
+      </c>
+      <c r="I919" s="2">
+        <v>25</v>
+      </c>
+      <c r="J919" s="2">
+        <v>9</v>
+      </c>
+      <c r="K919" s="2">
         <v>15</v>
-      </c>
-      <c r="I919" s="2">
-        <v>10</v>
-      </c>
-      <c r="J919" s="2">
-        <v>-2</v>
-      </c>
-      <c r="K919" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="B920" s="6" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="C920" t="s">
-        <v>1340</v>
+        <v>144</v>
       </c>
       <c r="D920" s="5" t="s">
-        <v>149</v>
+        <v>1335</v>
       </c>
       <c r="E920" s="5" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="F920" s="2">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="G920" s="2">
-        <v>50</v>
+        <v>180</v>
+      </c>
+      <c r="H920" s="2">
+        <v>34</v>
+      </c>
+      <c r="I920" s="2">
+        <v>40</v>
+      </c>
+      <c r="J920" s="2">
+        <v>20</v>
+      </c>
+      <c r="K920" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="921" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="B921" s="6" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="C921" t="s">
-        <v>1340</v>
+        <v>144</v>
       </c>
       <c r="D921" s="5" t="s">
-        <v>149</v>
+        <v>1335</v>
       </c>
       <c r="E921" s="5" t="s">
-        <v>156</v>
+        <v>1336</v>
       </c>
       <c r="F921" s="2">
-        <v>100</v>
+        <v>-180</v>
       </c>
       <c r="G921" s="2">
-        <v>100</v>
+        <v>-180</v>
+      </c>
+      <c r="H921" s="2">
+        <v>15</v>
+      </c>
+      <c r="I921" s="2">
+        <v>10</v>
+      </c>
+      <c r="J921" s="2">
+        <v>-2</v>
+      </c>
+      <c r="K921" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="B922" s="6" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="C922" t="s">
-        <v>144</v>
+        <v>1340</v>
       </c>
       <c r="D922" s="5" t="s">
-        <v>1347</v>
+        <v>149</v>
       </c>
       <c r="E922" s="5" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="F922" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G922" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="923" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="B923" s="6" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="C923" t="s">
-        <v>144</v>
+        <v>1340</v>
       </c>
       <c r="D923" s="5" t="s">
-        <v>1347</v>
+        <v>149</v>
       </c>
       <c r="E923" s="5" t="s">
-        <v>1348</v>
+        <v>156</v>
       </c>
       <c r="F923" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G923" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="924" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B924" s="6" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="C924" t="s">
         <v>144</v>
@@ -25515,9 +25522,55 @@
         <v>1348</v>
       </c>
       <c r="F924" s="2">
+        <v>40</v>
+      </c>
+      <c r="G924" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B925" s="6" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C925" t="s">
+        <v>144</v>
+      </c>
+      <c r="D925" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E925" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F925" s="2">
+        <v>30</v>
+      </c>
+      <c r="G925" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="926" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B926" s="6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C926" t="s">
+        <v>144</v>
+      </c>
+      <c r="D926" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E926" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F926" s="2">
         <v>95</v>
       </c>
-      <c r="G924" s="2">
+      <c r="G926" s="2">
         <v>95</v>
       </c>
     </row>
@@ -25527,1778 +25580,1778 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H861:I867 H888:I888 H893:I897 H715:I735 H1:I17 H681:I682 H689:I711 H684:I687 H279:I279 H238:I265 H271:I277 H282:I300 H596:I646 H844:I856 H879:I885 H381:I383 H539:I567 H317:I365 H303:I315 H751:I810 H652:I679 H569:I594 H368:I379 H899:I901 H20:I35 H189:I236 H812:I839 H737:I746 H37:I44 H518:I519 H386:I419 H904:I916 H871:I876 H48:I120 H142:I185 H122:I140 H424:I424 H431:I445 H458:I472 H485:I495 H920:I1048576 H508:I516">
-    <cfRule type="expression" dxfId="515" priority="458">
+  <conditionalFormatting sqref="H863:I869 H890:I890 H895:I899 H715:I735 H1:I17 H681:I682 H689:I711 H684:I687 H279:I279 H238:I265 H271:I277 H282:I300 H596:I646 H844:I856 H881:I887 H381:I383 H539:I567 H317:I365 H303:I315 H751:I810 H652:I679 H569:I594 H368:I379 H901:I903 H20:I35 H189:I236 H812:I839 H737:I746 H37:I44 H518:I519 H386:I419 H906:I918 H873:I878 H48:I120 H142:I185 H122:I140 H424:I424 H431:I445 H458:I472 H485:I495 H508:I516 H922:I1048576">
+    <cfRule type="expression" dxfId="516" priority="458">
       <formula>H1=$F1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J861:K867 J888:K888 J893:K897 J715:K735 J1:K17 J681:K682 J689:K711 J684:K687 J279:K279 J238:K265 J271:K277 J282:K300 J596:K646 J844:K856 J879:K885 J381:K383 J539:K567 J317:K365 J303:K315 J751:K810 J652:K679 J569:K594 J368:K379 J899:K901 J20:K35 J189:K236 J812:K839 J737:K746 J37:K44 J518:K519 J386:K419 J904:K916 J871:K876 J48:K120 J142:K185 J122:K140 J424:K424 J431:K445 J458:K472 J485:K495 J920:K1048576 J508:K516">
-    <cfRule type="expression" dxfId="514" priority="459">
+  <conditionalFormatting sqref="J863:K869 J890:K890 J895:K899 J715:K735 J1:K17 J681:K682 J689:K711 J684:K687 J279:K279 J238:K265 J271:K277 J282:K300 J596:K646 J844:K856 J881:K887 J381:K383 J539:K567 J317:K365 J303:K315 J751:K810 J652:K679 J569:K594 J368:K379 J901:K903 J20:K35 J189:K236 J812:K839 J737:K746 J37:K44 J518:K519 J386:K419 J906:K918 J873:K878 J48:K120 J142:K185 J122:K140 J424:K424 J431:K445 J458:K472 J485:K495 J508:K516 J922:K1048576">
+    <cfRule type="expression" dxfId="515" priority="459">
       <formula>J1=$G1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A920:A1461 A861:A867 A888 A893:A897 A352:A355 A253:A257 A357:A358 A360:A365 A374:A379 A330:A350 A313:A315 A557:A567 A29:A35 A715:A735 A238:A251 A381:A383 A681:A682 A689:A711 A684:A687 A260:A265 A279 A271:A277 A282:A299 A774:A810 A596:A646 A844:A856 A879:A885 A514:A516 A400:A419 A511:A512 A539:A553 A317:A327 A751:A752 A303:A311 A761:A763 A652:A679 A569:A594 A368:A372 A899:A901 A3:A17 A20:A27 A189:A236 A812:A839 A737:A746 A37:A44 A518:A519 A386:A394 A904:A916 A871:A876 A48:A120 A142:A185 A122:A140 A424 A431:A445 A458:A472 A485:A495 A508:A509">
-    <cfRule type="expression" dxfId="513" priority="461">
+  <conditionalFormatting sqref="A922:A1463 A863:A869 A890 A895:A899 A352:A355 A253:A257 A357:A358 A360:A365 A374:A379 A330:A350 A313:A315 A557:A567 A29:A35 A715:A735 A238:A251 A381:A383 A681:A682 A689:A711 A684:A687 A260:A265 A279 A271:A277 A282:A299 A774:A810 A596:A646 A844:A856 A881:A887 A514:A516 A400:A419 A511:A512 A539:A553 A317:A327 A751:A752 A303:A311 A761:A763 A652:A679 A569:A594 A368:A372 A901:A903 A3:A17 A20:A27 A189:A236 A812:A839 A737:A746 A37:A44 A518:A519 A386:A394 A906:A918 A873:A878 A48:A120 A142:A185 A122:A140 A424 A431:A445 A458:A472 A485:A495 A508:A509">
+    <cfRule type="expression" dxfId="514" priority="461">
       <formula>F3&lt;&gt;G3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H857:I857">
-    <cfRule type="expression" dxfId="512" priority="449">
+  <conditionalFormatting sqref="H857:I859">
+    <cfRule type="expression" dxfId="513" priority="449">
       <formula>H857=$F857</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J857:K857">
-    <cfRule type="expression" dxfId="511" priority="450">
+  <conditionalFormatting sqref="J857:K859">
+    <cfRule type="expression" dxfId="512" priority="450">
       <formula>J857=$G857</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A857">
-    <cfRule type="expression" dxfId="510" priority="451">
+  <conditionalFormatting sqref="A857:A859">
+    <cfRule type="expression" dxfId="511" priority="451">
       <formula>F857&lt;&gt;G857</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H858:I858">
-    <cfRule type="expression" dxfId="509" priority="446">
-      <formula>H858=$F858</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J858:K858">
-    <cfRule type="expression" dxfId="508" priority="447">
-      <formula>J858=$G858</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A858">
-    <cfRule type="expression" dxfId="507" priority="448">
-      <formula>F858&lt;&gt;G858</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H859:I859">
-    <cfRule type="expression" dxfId="506" priority="443">
-      <formula>H859=$F859</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J859:K859">
-    <cfRule type="expression" dxfId="505" priority="444">
-      <formula>J859=$G859</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A859">
-    <cfRule type="expression" dxfId="504" priority="445">
-      <formula>F859&lt;&gt;G859</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H917:I919">
-    <cfRule type="expression" dxfId="503" priority="440">
-      <formula>H917=$F917</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J917:K919">
-    <cfRule type="expression" dxfId="502" priority="441">
-      <formula>J917=$G917</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A917:A919">
-    <cfRule type="expression" dxfId="501" priority="442">
-      <formula>F917&lt;&gt;G917</formula>
+  <conditionalFormatting sqref="H860:I860">
+    <cfRule type="expression" dxfId="510" priority="446">
+      <formula>H860=$F860</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J860:K860">
+    <cfRule type="expression" dxfId="509" priority="447">
+      <formula>J860=$G860</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A860">
+    <cfRule type="expression" dxfId="508" priority="448">
+      <formula>F860&lt;&gt;G860</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H861:I861">
+    <cfRule type="expression" dxfId="507" priority="443">
+      <formula>H861=$F861</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J861:K861">
+    <cfRule type="expression" dxfId="506" priority="444">
+      <formula>J861=$G861</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A861">
+    <cfRule type="expression" dxfId="505" priority="445">
+      <formula>F861&lt;&gt;G861</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H919:I921">
+    <cfRule type="expression" dxfId="504" priority="440">
+      <formula>H919=$F919</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J919:K921">
+    <cfRule type="expression" dxfId="503" priority="441">
+      <formula>J919=$G919</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A919:A921">
+    <cfRule type="expression" dxfId="502" priority="442">
+      <formula>F919&lt;&gt;G919</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H748:I748">
-    <cfRule type="expression" dxfId="500" priority="437">
+    <cfRule type="expression" dxfId="501" priority="437">
       <formula>H748=$F748</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J748:K748">
-    <cfRule type="expression" dxfId="499" priority="438">
+    <cfRule type="expression" dxfId="500" priority="438">
       <formula>J748=$G748</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A748">
-    <cfRule type="expression" dxfId="498" priority="439">
+    <cfRule type="expression" dxfId="499" priority="439">
       <formula>F748&lt;&gt;G748</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H747:I747">
-    <cfRule type="expression" dxfId="497" priority="434">
+    <cfRule type="expression" dxfId="498" priority="434">
       <formula>H747=$F747</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J747:K747">
-    <cfRule type="expression" dxfId="496" priority="435">
+    <cfRule type="expression" dxfId="497" priority="435">
       <formula>J747=$G747</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A747">
-    <cfRule type="expression" dxfId="495" priority="436">
+    <cfRule type="expression" dxfId="496" priority="436">
       <formula>F747&lt;&gt;G747</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H749:I749">
-    <cfRule type="expression" dxfId="494" priority="431">
+    <cfRule type="expression" dxfId="495" priority="431">
       <formula>H749=$F749</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J749:K749">
-    <cfRule type="expression" dxfId="493" priority="432">
+    <cfRule type="expression" dxfId="494" priority="432">
       <formula>J749=$G749</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A749">
-    <cfRule type="expression" dxfId="492" priority="433">
+    <cfRule type="expression" dxfId="493" priority="433">
       <formula>F749&lt;&gt;G749</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H750:I750">
-    <cfRule type="expression" dxfId="491" priority="428">
+    <cfRule type="expression" dxfId="492" priority="428">
       <formula>H750=$F750</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J750:K750">
-    <cfRule type="expression" dxfId="490" priority="429">
+    <cfRule type="expression" dxfId="491" priority="429">
       <formula>J750=$G750</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A750">
-    <cfRule type="expression" dxfId="489" priority="430">
+    <cfRule type="expression" dxfId="490" priority="430">
       <formula>F750&lt;&gt;G750</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H877:I877">
-    <cfRule type="expression" dxfId="488" priority="422">
-      <formula>H877=$F877</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J877:K877">
-    <cfRule type="expression" dxfId="487" priority="423">
-      <formula>J877=$G877</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A877">
-    <cfRule type="expression" dxfId="486" priority="424">
-      <formula>F877&lt;&gt;G877</formula>
+  <conditionalFormatting sqref="H879:I879">
+    <cfRule type="expression" dxfId="489" priority="422">
+      <formula>H879=$F879</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J879:K879">
+    <cfRule type="expression" dxfId="488" priority="423">
+      <formula>J879=$G879</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A879">
+    <cfRule type="expression" dxfId="487" priority="424">
+      <formula>F879&lt;&gt;G879</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A513">
-    <cfRule type="expression" dxfId="485" priority="421">
+    <cfRule type="expression" dxfId="486" priority="421">
       <formula>F513&lt;&gt;G513</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H890:I890">
-    <cfRule type="expression" dxfId="484" priority="416">
-      <formula>H890=$F890</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J890:K890">
-    <cfRule type="expression" dxfId="483" priority="417">
-      <formula>J890=$G890</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A890">
-    <cfRule type="expression" dxfId="482" priority="418">
-      <formula>F890&lt;&gt;G890</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H887:I887">
-    <cfRule type="expression" dxfId="481" priority="413">
-      <formula>H887=$F887</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J887:K887">
-    <cfRule type="expression" dxfId="480" priority="414">
-      <formula>J887=$G887</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A887">
-    <cfRule type="expression" dxfId="479" priority="415">
-      <formula>F887&lt;&gt;G887</formula>
+  <conditionalFormatting sqref="H892:I892">
+    <cfRule type="expression" dxfId="485" priority="416">
+      <formula>H892=$F892</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J892:K892">
+    <cfRule type="expression" dxfId="484" priority="417">
+      <formula>J892=$G892</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A892">
+    <cfRule type="expression" dxfId="483" priority="418">
+      <formula>F892&lt;&gt;G892</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H889:I889">
+    <cfRule type="expression" dxfId="482" priority="413">
+      <formula>H889=$F889</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J889:K889">
+    <cfRule type="expression" dxfId="481" priority="414">
+      <formula>J889=$G889</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A889">
+    <cfRule type="expression" dxfId="480" priority="415">
+      <formula>F889&lt;&gt;G889</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H893:I893">
+    <cfRule type="expression" dxfId="479" priority="410">
+      <formula>H893=$F893</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J893:K893">
+    <cfRule type="expression" dxfId="478" priority="411">
+      <formula>J893=$G893</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A893">
+    <cfRule type="expression" dxfId="477" priority="412">
+      <formula>F893&lt;&gt;G893</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H894:I894">
+    <cfRule type="expression" dxfId="476" priority="407">
+      <formula>H894=$F894</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J894:K894">
+    <cfRule type="expression" dxfId="475" priority="408">
+      <formula>J894=$G894</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A894">
+    <cfRule type="expression" dxfId="474" priority="409">
+      <formula>F894&lt;&gt;G894</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H880:I880">
+    <cfRule type="expression" dxfId="473" priority="404">
+      <formula>H880=$F880</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J880:K880">
+    <cfRule type="expression" dxfId="472" priority="405">
+      <formula>J880=$G880</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A880">
+    <cfRule type="expression" dxfId="471" priority="406">
+      <formula>F880&lt;&gt;G880</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H888:I888">
+    <cfRule type="expression" dxfId="470" priority="401">
+      <formula>H888=$F888</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J888:K888">
+    <cfRule type="expression" dxfId="469" priority="402">
+      <formula>J888=$G888</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A888">
+    <cfRule type="expression" dxfId="468" priority="403">
+      <formula>F888&lt;&gt;G888</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H904:I904">
+    <cfRule type="expression" dxfId="467" priority="398">
+      <formula>H904=$F904</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J904:K904">
+    <cfRule type="expression" dxfId="466" priority="399">
+      <formula>J904=$G904</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A904">
+    <cfRule type="expression" dxfId="465" priority="400">
+      <formula>F904&lt;&gt;G904</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H905:I905">
+    <cfRule type="expression" dxfId="464" priority="395">
+      <formula>H905=$F905</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J905:K905">
+    <cfRule type="expression" dxfId="463" priority="396">
+      <formula>J905=$G905</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A905">
+    <cfRule type="expression" dxfId="462" priority="397">
+      <formula>F905&lt;&gt;G905</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A510">
+    <cfRule type="expression" dxfId="461" priority="394">
+      <formula>F510&lt;&gt;G510</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H891:I891">
-    <cfRule type="expression" dxfId="478" priority="410">
+    <cfRule type="expression" dxfId="460" priority="389">
       <formula>H891=$F891</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J891:K891">
-    <cfRule type="expression" dxfId="477" priority="411">
+    <cfRule type="expression" dxfId="459" priority="390">
       <formula>J891=$G891</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A891">
-    <cfRule type="expression" dxfId="476" priority="412">
+    <cfRule type="expression" dxfId="458" priority="391">
       <formula>F891&lt;&gt;G891</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H892:I892">
-    <cfRule type="expression" dxfId="475" priority="407">
-      <formula>H892=$F892</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J892:K892">
-    <cfRule type="expression" dxfId="474" priority="408">
-      <formula>J892=$G892</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A892">
-    <cfRule type="expression" dxfId="473" priority="409">
-      <formula>F892&lt;&gt;G892</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H878:I878">
-    <cfRule type="expression" dxfId="472" priority="404">
-      <formula>H878=$F878</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J878:K878">
-    <cfRule type="expression" dxfId="471" priority="405">
-      <formula>J878=$G878</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A878">
-    <cfRule type="expression" dxfId="470" priority="406">
-      <formula>F878&lt;&gt;G878</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H886:I886">
-    <cfRule type="expression" dxfId="469" priority="401">
-      <formula>H886=$F886</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J886:K886">
-    <cfRule type="expression" dxfId="468" priority="402">
-      <formula>J886=$G886</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A886">
-    <cfRule type="expression" dxfId="467" priority="403">
-      <formula>F886&lt;&gt;G886</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H902:I902">
-    <cfRule type="expression" dxfId="466" priority="398">
-      <formula>H902=$F902</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J902:K902">
-    <cfRule type="expression" dxfId="465" priority="399">
-      <formula>J902=$G902</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A902">
-    <cfRule type="expression" dxfId="464" priority="400">
-      <formula>F902&lt;&gt;G902</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H903:I903">
-    <cfRule type="expression" dxfId="463" priority="395">
-      <formula>H903=$F903</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J903:K903">
-    <cfRule type="expression" dxfId="462" priority="396">
-      <formula>J903=$G903</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A903">
-    <cfRule type="expression" dxfId="461" priority="397">
-      <formula>F903&lt;&gt;G903</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A510">
-    <cfRule type="expression" dxfId="460" priority="394">
-      <formula>F510&lt;&gt;G510</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H889:I889">
-    <cfRule type="expression" dxfId="459" priority="389">
-      <formula>H889=$F889</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J889:K889">
-    <cfRule type="expression" dxfId="458" priority="390">
-      <formula>J889=$G889</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A889">
-    <cfRule type="expression" dxfId="457" priority="391">
-      <formula>F889&lt;&gt;G889</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A328">
-    <cfRule type="expression" dxfId="456" priority="385">
+    <cfRule type="expression" dxfId="457" priority="385">
       <formula>F328&lt;&gt;G328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A329">
-    <cfRule type="expression" dxfId="455" priority="382">
+    <cfRule type="expression" dxfId="456" priority="382">
       <formula>F329&lt;&gt;G329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="454" priority="376">
+    <cfRule type="expression" dxfId="455" priority="376">
       <formula>F28&lt;&gt;G28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A351">
-    <cfRule type="expression" dxfId="453" priority="373">
+    <cfRule type="expression" dxfId="454" priority="373">
       <formula>F351&lt;&gt;G351</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A395">
-    <cfRule type="expression" dxfId="452" priority="370">
+    <cfRule type="expression" dxfId="453" priority="370">
       <formula>F395&lt;&gt;G395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A396">
-    <cfRule type="expression" dxfId="451" priority="367">
+    <cfRule type="expression" dxfId="452" priority="367">
       <formula>F396&lt;&gt;G396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A397">
-    <cfRule type="expression" dxfId="450" priority="364">
+    <cfRule type="expression" dxfId="451" priority="364">
       <formula>F397&lt;&gt;G397</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A398">
-    <cfRule type="expression" dxfId="449" priority="361">
+    <cfRule type="expression" dxfId="450" priority="361">
       <formula>F398&lt;&gt;G398</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A399">
-    <cfRule type="expression" dxfId="448" priority="358">
+    <cfRule type="expression" dxfId="449" priority="358">
       <formula>F399&lt;&gt;G399</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A252">
-    <cfRule type="expression" dxfId="447" priority="355">
+    <cfRule type="expression" dxfId="448" priority="355">
       <formula>F252&lt;&gt;G252</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A259">
-    <cfRule type="expression" dxfId="446" priority="352">
+    <cfRule type="expression" dxfId="447" priority="352">
       <formula>F259&lt;&gt;G259</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A258">
-    <cfRule type="expression" dxfId="445" priority="349">
+    <cfRule type="expression" dxfId="446" priority="349">
       <formula>F258&lt;&gt;G258</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A312">
-    <cfRule type="expression" dxfId="444" priority="346">
+    <cfRule type="expression" dxfId="445" priority="346">
       <formula>F312&lt;&gt;G312</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A356">
-    <cfRule type="expression" dxfId="443" priority="343">
+    <cfRule type="expression" dxfId="444" priority="343">
       <formula>F356&lt;&gt;G356</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A359">
-    <cfRule type="expression" dxfId="442" priority="340">
+    <cfRule type="expression" dxfId="443" priority="340">
       <formula>F359&lt;&gt;G359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A373">
-    <cfRule type="expression" dxfId="441" priority="334">
+    <cfRule type="expression" dxfId="442" priority="334">
       <formula>F373&lt;&gt;G373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A554">
-    <cfRule type="expression" dxfId="440" priority="333">
+    <cfRule type="expression" dxfId="441" priority="333">
       <formula>F554&lt;&gt;G554</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A555">
-    <cfRule type="expression" dxfId="439" priority="330">
+    <cfRule type="expression" dxfId="440" priority="330">
       <formula>F555&lt;&gt;G555</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A556">
-    <cfRule type="expression" dxfId="438" priority="327">
+    <cfRule type="expression" dxfId="439" priority="327">
       <formula>F556&lt;&gt;G556</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H840:I840">
-    <cfRule type="expression" dxfId="437" priority="322">
+    <cfRule type="expression" dxfId="438" priority="322">
       <formula>H840=$F840</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J840:K840">
-    <cfRule type="expression" dxfId="436" priority="323">
+    <cfRule type="expression" dxfId="437" priority="323">
       <formula>J840=$G840</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A840">
-    <cfRule type="expression" dxfId="435" priority="324">
+    <cfRule type="expression" dxfId="436" priority="324">
       <formula>F840&lt;&gt;G840</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H841:I841">
-    <cfRule type="expression" dxfId="434" priority="319">
+    <cfRule type="expression" dxfId="435" priority="319">
       <formula>H841=$F841</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J841:K841">
-    <cfRule type="expression" dxfId="433" priority="320">
+    <cfRule type="expression" dxfId="434" priority="320">
       <formula>J841=$G841</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A841">
-    <cfRule type="expression" dxfId="432" priority="321">
+    <cfRule type="expression" dxfId="433" priority="321">
       <formula>F841&lt;&gt;G841</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H842:I842">
-    <cfRule type="expression" dxfId="431" priority="316">
+    <cfRule type="expression" dxfId="432" priority="316">
       <formula>H842=$F842</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J842:K842">
-    <cfRule type="expression" dxfId="430" priority="317">
+    <cfRule type="expression" dxfId="431" priority="317">
       <formula>J842=$G842</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A842">
-    <cfRule type="expression" dxfId="429" priority="318">
+    <cfRule type="expression" dxfId="430" priority="318">
       <formula>F842&lt;&gt;G842</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H843:I843">
-    <cfRule type="expression" dxfId="428" priority="313">
+    <cfRule type="expression" dxfId="429" priority="313">
       <formula>H843=$F843</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J843:K843">
-    <cfRule type="expression" dxfId="427" priority="314">
+    <cfRule type="expression" dxfId="428" priority="314">
       <formula>J843=$G843</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A843">
-    <cfRule type="expression" dxfId="426" priority="315">
+    <cfRule type="expression" dxfId="427" priority="315">
       <formula>F843&lt;&gt;G843</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H714:I714">
-    <cfRule type="expression" dxfId="425" priority="310">
+    <cfRule type="expression" dxfId="426" priority="310">
       <formula>H714=$F714</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J714:K714">
-    <cfRule type="expression" dxfId="424" priority="311">
+    <cfRule type="expression" dxfId="425" priority="311">
       <formula>J714=$G714</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A714">
-    <cfRule type="expression" dxfId="423" priority="312">
+    <cfRule type="expression" dxfId="424" priority="312">
       <formula>F714&lt;&gt;G714</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H713:I713">
-    <cfRule type="expression" dxfId="422" priority="307">
+    <cfRule type="expression" dxfId="423" priority="307">
       <formula>H713=$F713</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J713:K713">
-    <cfRule type="expression" dxfId="421" priority="308">
+    <cfRule type="expression" dxfId="422" priority="308">
       <formula>J713=$G713</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A713">
-    <cfRule type="expression" dxfId="420" priority="309">
+    <cfRule type="expression" dxfId="421" priority="309">
       <formula>F713&lt;&gt;G713</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H712:I712">
-    <cfRule type="expression" dxfId="419" priority="304">
+    <cfRule type="expression" dxfId="420" priority="304">
       <formula>H712=$F712</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J712:K712">
-    <cfRule type="expression" dxfId="418" priority="305">
+    <cfRule type="expression" dxfId="419" priority="305">
       <formula>J712=$G712</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A712">
-    <cfRule type="expression" dxfId="417" priority="306">
+    <cfRule type="expression" dxfId="418" priority="306">
       <formula>F712&lt;&gt;G712</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H366:I367">
-    <cfRule type="expression" dxfId="416" priority="301">
+    <cfRule type="expression" dxfId="417" priority="301">
       <formula>H366=$F366</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J366:K367">
-    <cfRule type="expression" dxfId="415" priority="302">
+    <cfRule type="expression" dxfId="416" priority="302">
       <formula>J366=$G366</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A366:A367">
-    <cfRule type="expression" dxfId="414" priority="303">
+    <cfRule type="expression" dxfId="415" priority="303">
       <formula>F366&lt;&gt;G366</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H301:I301">
-    <cfRule type="expression" dxfId="413" priority="298">
+    <cfRule type="expression" dxfId="414" priority="298">
       <formula>H301=$F301</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J301:K301">
-    <cfRule type="expression" dxfId="412" priority="299">
+    <cfRule type="expression" dxfId="413" priority="299">
       <formula>J301=$G301</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="expression" dxfId="411" priority="300">
+    <cfRule type="expression" dxfId="412" priority="300">
       <formula>F301&lt;&gt;G301</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H302:I302">
-    <cfRule type="expression" dxfId="410" priority="295">
+    <cfRule type="expression" dxfId="411" priority="295">
       <formula>H302=$F302</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J302:K302">
-    <cfRule type="expression" dxfId="409" priority="296">
+    <cfRule type="expression" dxfId="410" priority="296">
       <formula>J302=$G302</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="expression" dxfId="408" priority="297">
+    <cfRule type="expression" dxfId="409" priority="297">
       <formula>F302&lt;&gt;G302</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="expression" dxfId="407" priority="294">
+    <cfRule type="expression" dxfId="408" priority="294">
       <formula>F300&lt;&gt;G300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H237:I237">
-    <cfRule type="expression" dxfId="406" priority="289">
+    <cfRule type="expression" dxfId="407" priority="289">
       <formula>H237=$F237</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J237:K237">
-    <cfRule type="expression" dxfId="405" priority="290">
+    <cfRule type="expression" dxfId="406" priority="290">
       <formula>J237=$G237</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="expression" dxfId="404" priority="291">
+    <cfRule type="expression" dxfId="405" priority="291">
       <formula>F237&lt;&gt;G237</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H380:I380">
-    <cfRule type="expression" dxfId="403" priority="286">
+    <cfRule type="expression" dxfId="404" priority="286">
       <formula>H380=$F380</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J380:K380">
-    <cfRule type="expression" dxfId="402" priority="287">
+    <cfRule type="expression" dxfId="403" priority="287">
       <formula>J380=$G380</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A380">
-    <cfRule type="expression" dxfId="401" priority="288">
+    <cfRule type="expression" dxfId="402" priority="288">
       <formula>F380&lt;&gt;G380</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H680:I680">
-    <cfRule type="expression" dxfId="400" priority="283">
+    <cfRule type="expression" dxfId="401" priority="283">
       <formula>H680=$F680</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J680:K680">
-    <cfRule type="expression" dxfId="399" priority="284">
+    <cfRule type="expression" dxfId="400" priority="284">
       <formula>J680=$G680</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A680">
-    <cfRule type="expression" dxfId="398" priority="285">
+    <cfRule type="expression" dxfId="399" priority="285">
       <formula>F680&lt;&gt;G680</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H688:I688">
-    <cfRule type="expression" dxfId="397" priority="280">
+    <cfRule type="expression" dxfId="398" priority="280">
       <formula>H688=$F688</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J688:K688">
-    <cfRule type="expression" dxfId="396" priority="281">
+    <cfRule type="expression" dxfId="397" priority="281">
       <formula>J688=$G688</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A688">
-    <cfRule type="expression" dxfId="395" priority="282">
+    <cfRule type="expression" dxfId="396" priority="282">
       <formula>F688&lt;&gt;G688</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H683:I683">
-    <cfRule type="expression" dxfId="394" priority="277">
+    <cfRule type="expression" dxfId="395" priority="277">
       <formula>H683=$F683</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J683:K683">
-    <cfRule type="expression" dxfId="393" priority="278">
+    <cfRule type="expression" dxfId="394" priority="278">
       <formula>J683=$G683</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A683">
-    <cfRule type="expression" dxfId="392" priority="279">
+    <cfRule type="expression" dxfId="393" priority="279">
       <formula>F683&lt;&gt;G683</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H278:I278">
-    <cfRule type="expression" dxfId="391" priority="274">
+    <cfRule type="expression" dxfId="392" priority="274">
       <formula>H278=$F278</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J278:K278">
-    <cfRule type="expression" dxfId="390" priority="275">
+    <cfRule type="expression" dxfId="391" priority="275">
       <formula>J278=$G278</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A278">
-    <cfRule type="expression" dxfId="389" priority="276">
+    <cfRule type="expression" dxfId="390" priority="276">
       <formula>F278&lt;&gt;G278</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H266:I270">
-    <cfRule type="expression" dxfId="388" priority="268">
+    <cfRule type="expression" dxfId="389" priority="268">
       <formula>H266=$F266</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J266:K270">
-    <cfRule type="expression" dxfId="387" priority="269">
+    <cfRule type="expression" dxfId="388" priority="269">
       <formula>J266=$G266</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A266:A270">
-    <cfRule type="expression" dxfId="386" priority="270">
+    <cfRule type="expression" dxfId="387" priority="270">
       <formula>F266&lt;&gt;G266</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H280:I280">
-    <cfRule type="expression" dxfId="385" priority="265">
+    <cfRule type="expression" dxfId="386" priority="265">
       <formula>H280=$F280</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J280:K280">
-    <cfRule type="expression" dxfId="384" priority="266">
+    <cfRule type="expression" dxfId="385" priority="266">
       <formula>J280=$G280</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280">
-    <cfRule type="expression" dxfId="383" priority="267">
+    <cfRule type="expression" dxfId="384" priority="267">
       <formula>F280&lt;&gt;G280</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H281:I281">
-    <cfRule type="expression" dxfId="382" priority="262">
+    <cfRule type="expression" dxfId="383" priority="262">
       <formula>H281=$F281</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J281:K281">
-    <cfRule type="expression" dxfId="381" priority="263">
+    <cfRule type="expression" dxfId="382" priority="263">
       <formula>J281=$G281</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281">
-    <cfRule type="expression" dxfId="380" priority="264">
+    <cfRule type="expression" dxfId="381" priority="264">
       <formula>F281&lt;&gt;G281</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A764">
-    <cfRule type="expression" dxfId="379" priority="261">
+    <cfRule type="expression" dxfId="380" priority="261">
       <formula>F764&lt;&gt;G764</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A765">
-    <cfRule type="expression" dxfId="378" priority="258">
+    <cfRule type="expression" dxfId="379" priority="258">
       <formula>F765&lt;&gt;G765</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A767">
-    <cfRule type="expression" dxfId="377" priority="255">
+    <cfRule type="expression" dxfId="378" priority="255">
       <formula>F767&lt;&gt;G767</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A766">
-    <cfRule type="expression" dxfId="376" priority="252">
+    <cfRule type="expression" dxfId="377" priority="252">
       <formula>F766&lt;&gt;G766</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A768">
-    <cfRule type="expression" dxfId="375" priority="249">
+    <cfRule type="expression" dxfId="376" priority="249">
       <formula>F768&lt;&gt;G768</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A770:A773">
-    <cfRule type="expression" dxfId="374" priority="246">
+    <cfRule type="expression" dxfId="375" priority="246">
       <formula>F770&lt;&gt;G770</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A769">
-    <cfRule type="expression" dxfId="373" priority="243">
+    <cfRule type="expression" dxfId="374" priority="243">
       <formula>F769&lt;&gt;G769</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H595:I595">
-    <cfRule type="expression" dxfId="372" priority="238">
+    <cfRule type="expression" dxfId="373" priority="238">
       <formula>H595=$F595</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J595:K595">
-    <cfRule type="expression" dxfId="371" priority="239">
+    <cfRule type="expression" dxfId="372" priority="239">
       <formula>J595=$G595</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A595">
-    <cfRule type="expression" dxfId="370" priority="240">
+    <cfRule type="expression" dxfId="371" priority="240">
       <formula>F595&lt;&gt;G595</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H521:I521">
-    <cfRule type="expression" dxfId="369" priority="235">
+    <cfRule type="expression" dxfId="370" priority="235">
       <formula>H521=$F521</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J521:K521">
-    <cfRule type="expression" dxfId="368" priority="236">
+    <cfRule type="expression" dxfId="369" priority="236">
       <formula>J521=$G521</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A521">
-    <cfRule type="expression" dxfId="367" priority="237">
+    <cfRule type="expression" dxfId="368" priority="237">
       <formula>F521&lt;&gt;G521</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H522:I526">
-    <cfRule type="expression" dxfId="366" priority="232">
+    <cfRule type="expression" dxfId="367" priority="232">
       <formula>H522=$F522</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J522:K526">
-    <cfRule type="expression" dxfId="365" priority="233">
+    <cfRule type="expression" dxfId="366" priority="233">
       <formula>J522=$G522</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A522:A526">
-    <cfRule type="expression" dxfId="364" priority="234">
+    <cfRule type="expression" dxfId="365" priority="234">
       <formula>F522&lt;&gt;G522</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H527:I535">
-    <cfRule type="expression" dxfId="363" priority="229">
+    <cfRule type="expression" dxfId="364" priority="229">
       <formula>H527=$F527</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J527:K535">
-    <cfRule type="expression" dxfId="362" priority="230">
+    <cfRule type="expression" dxfId="363" priority="230">
       <formula>J527=$G527</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A527:A535">
-    <cfRule type="expression" dxfId="361" priority="231">
+    <cfRule type="expression" dxfId="362" priority="231">
       <formula>F527&lt;&gt;G527</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H316:I316">
-    <cfRule type="expression" dxfId="360" priority="226">
+    <cfRule type="expression" dxfId="361" priority="226">
       <formula>H316=$F316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J316:K316">
-    <cfRule type="expression" dxfId="359" priority="227">
+    <cfRule type="expression" dxfId="360" priority="227">
       <formula>J316=$G316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A316">
-    <cfRule type="expression" dxfId="358" priority="228">
+    <cfRule type="expression" dxfId="359" priority="228">
       <formula>F316&lt;&gt;G316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A753">
-    <cfRule type="expression" dxfId="357" priority="225">
+    <cfRule type="expression" dxfId="358" priority="225">
       <formula>F753&lt;&gt;G753</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A754">
-    <cfRule type="expression" dxfId="356" priority="222">
+    <cfRule type="expression" dxfId="357" priority="222">
       <formula>F754&lt;&gt;G754</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A755">
-    <cfRule type="expression" dxfId="355" priority="219">
+    <cfRule type="expression" dxfId="356" priority="219">
       <formula>F755&lt;&gt;G755</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A756">
-    <cfRule type="expression" dxfId="354" priority="216">
+    <cfRule type="expression" dxfId="355" priority="216">
       <formula>F756&lt;&gt;G756</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A757">
-    <cfRule type="expression" dxfId="353" priority="213">
+    <cfRule type="expression" dxfId="354" priority="213">
       <formula>F757&lt;&gt;G757</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="expression" dxfId="352" priority="210">
+    <cfRule type="expression" dxfId="353" priority="210">
       <formula>F758&lt;&gt;G758</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A759">
-    <cfRule type="expression" dxfId="351" priority="207">
+    <cfRule type="expression" dxfId="352" priority="207">
       <formula>F759&lt;&gt;G759</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A760">
-    <cfRule type="expression" dxfId="350" priority="204">
+    <cfRule type="expression" dxfId="351" priority="204">
       <formula>F760&lt;&gt;G760</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H647:I647 H649:I650">
-    <cfRule type="expression" dxfId="349" priority="199">
+    <cfRule type="expression" dxfId="350" priority="199">
       <formula>H647=$F647</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J647:K647 J649:K650">
-    <cfRule type="expression" dxfId="348" priority="200">
+    <cfRule type="expression" dxfId="349" priority="200">
       <formula>J647=$G647</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A647 A649:A650">
-    <cfRule type="expression" dxfId="347" priority="201">
+    <cfRule type="expression" dxfId="348" priority="201">
       <formula>F647&lt;&gt;G647</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:I47">
-    <cfRule type="expression" dxfId="346" priority="196">
+    <cfRule type="expression" dxfId="347" priority="196">
       <formula>H47=$F47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:K47">
-    <cfRule type="expression" dxfId="345" priority="197">
+    <cfRule type="expression" dxfId="346" priority="197">
       <formula>J47=$G47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="344" priority="198">
+    <cfRule type="expression" dxfId="345" priority="198">
       <formula>F47&lt;&gt;G47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H568:I568">
-    <cfRule type="expression" dxfId="343" priority="193">
+    <cfRule type="expression" dxfId="344" priority="193">
       <formula>H568=$F568</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J568:K568">
-    <cfRule type="expression" dxfId="342" priority="194">
+    <cfRule type="expression" dxfId="343" priority="194">
       <formula>J568=$G568</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A568">
-    <cfRule type="expression" dxfId="341" priority="195">
+    <cfRule type="expression" dxfId="342" priority="195">
       <formula>F568&lt;&gt;G568</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H648:I648">
-    <cfRule type="expression" dxfId="340" priority="190">
+    <cfRule type="expression" dxfId="341" priority="190">
       <formula>H648=$F648</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J648:K648">
-    <cfRule type="expression" dxfId="339" priority="191">
+    <cfRule type="expression" dxfId="340" priority="191">
       <formula>J648=$G648</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A648">
-    <cfRule type="expression" dxfId="338" priority="192">
+    <cfRule type="expression" dxfId="339" priority="192">
       <formula>F648&lt;&gt;G648</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H651:I651">
-    <cfRule type="expression" dxfId="337" priority="187">
+    <cfRule type="expression" dxfId="338" priority="187">
       <formula>H651=$F651</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J651:K651">
-    <cfRule type="expression" dxfId="336" priority="188">
+    <cfRule type="expression" dxfId="337" priority="188">
       <formula>J651=$G651</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A651">
-    <cfRule type="expression" dxfId="335" priority="189">
+    <cfRule type="expression" dxfId="336" priority="189">
       <formula>F651&lt;&gt;G651</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H898:I898">
-    <cfRule type="expression" dxfId="334" priority="184">
-      <formula>H898=$F898</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J898:K898">
-    <cfRule type="expression" dxfId="333" priority="185">
-      <formula>J898=$G898</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A898">
-    <cfRule type="expression" dxfId="332" priority="186">
-      <formula>F898&lt;&gt;G898</formula>
+  <conditionalFormatting sqref="H900:I900">
+    <cfRule type="expression" dxfId="335" priority="184">
+      <formula>H900=$F900</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J900:K900">
+    <cfRule type="expression" dxfId="334" priority="185">
+      <formula>J900=$G900</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A900">
+    <cfRule type="expression" dxfId="333" priority="186">
+      <formula>F900&lt;&gt;G900</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:I19">
-    <cfRule type="expression" dxfId="331" priority="181">
+    <cfRule type="expression" dxfId="332" priority="181">
       <formula>H18=$F18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K19">
-    <cfRule type="expression" dxfId="330" priority="182">
+    <cfRule type="expression" dxfId="331" priority="182">
       <formula>J18=$G18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="expression" dxfId="329" priority="183">
+    <cfRule type="expression" dxfId="330" priority="183">
       <formula>F18&lt;&gt;G18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187:I187">
-    <cfRule type="expression" dxfId="328" priority="178">
+    <cfRule type="expression" dxfId="329" priority="178">
       <formula>H187=$F187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J187:K187">
-    <cfRule type="expression" dxfId="327" priority="179">
+    <cfRule type="expression" dxfId="328" priority="179">
       <formula>J187=$G187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A187">
-    <cfRule type="expression" dxfId="326" priority="180">
+    <cfRule type="expression" dxfId="327" priority="180">
       <formula>F187&lt;&gt;G187</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H186:I186">
-    <cfRule type="expression" dxfId="325" priority="174">
+    <cfRule type="expression" dxfId="326" priority="174">
       <formula>H186=$F186</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J186:K186">
-    <cfRule type="expression" dxfId="324" priority="175">
+    <cfRule type="expression" dxfId="325" priority="175">
       <formula>J186=$G186</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186">
-    <cfRule type="expression" dxfId="323" priority="176">
+    <cfRule type="expression" dxfId="324" priority="176">
       <formula>F186&lt;&gt;G186</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H188:I188">
-    <cfRule type="expression" dxfId="322" priority="170">
+    <cfRule type="expression" dxfId="323" priority="170">
       <formula>H188=$F188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J188:K188">
-    <cfRule type="expression" dxfId="321" priority="171">
+    <cfRule type="expression" dxfId="322" priority="171">
       <formula>J188=$G188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A188">
-    <cfRule type="expression" dxfId="320" priority="172">
+    <cfRule type="expression" dxfId="321" priority="172">
       <formula>F188&lt;&gt;G188</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H811:I811">
-    <cfRule type="expression" dxfId="319" priority="166">
+    <cfRule type="expression" dxfId="320" priority="166">
       <formula>H811=$F811</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J811:K811">
-    <cfRule type="expression" dxfId="318" priority="167">
+    <cfRule type="expression" dxfId="319" priority="167">
       <formula>J811=$G811</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A811">
-    <cfRule type="expression" dxfId="317" priority="168">
+    <cfRule type="expression" dxfId="318" priority="168">
       <formula>F811&lt;&gt;G811</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H736:I736">
-    <cfRule type="expression" dxfId="316" priority="163">
+    <cfRule type="expression" dxfId="317" priority="163">
       <formula>H736=$F736</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J736:K736">
-    <cfRule type="expression" dxfId="315" priority="164">
+    <cfRule type="expression" dxfId="316" priority="164">
       <formula>J736=$G736</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A736">
-    <cfRule type="expression" dxfId="314" priority="165">
+    <cfRule type="expression" dxfId="315" priority="165">
       <formula>F736&lt;&gt;G736</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H520:I520">
-    <cfRule type="expression" dxfId="313" priority="151">
+    <cfRule type="expression" dxfId="314" priority="151">
       <formula>H520=$F520</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J520:K520">
-    <cfRule type="expression" dxfId="312" priority="152">
+    <cfRule type="expression" dxfId="313" priority="152">
       <formula>J520=$G520</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A520">
-    <cfRule type="expression" dxfId="311" priority="153">
+    <cfRule type="expression" dxfId="312" priority="153">
       <formula>F520&lt;&gt;G520</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:I36">
-    <cfRule type="expression" dxfId="310" priority="148">
+    <cfRule type="expression" dxfId="311" priority="148">
       <formula>H36=$F36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:K36">
-    <cfRule type="expression" dxfId="309" priority="149">
+    <cfRule type="expression" dxfId="310" priority="149">
       <formula>J36=$G36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="308" priority="150">
+    <cfRule type="expression" dxfId="309" priority="150">
       <formula>F36&lt;&gt;G36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H517:I517">
-    <cfRule type="expression" dxfId="307" priority="145">
+    <cfRule type="expression" dxfId="308" priority="145">
       <formula>H517=$F517</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J517:K517">
-    <cfRule type="expression" dxfId="306" priority="146">
+    <cfRule type="expression" dxfId="307" priority="146">
       <formula>J517=$G517</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A517">
-    <cfRule type="expression" dxfId="305" priority="147">
+    <cfRule type="expression" dxfId="306" priority="147">
       <formula>F517&lt;&gt;G517</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H537:I538">
-    <cfRule type="expression" dxfId="304" priority="142">
+    <cfRule type="expression" dxfId="305" priority="142">
       <formula>H537=$F537</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J537:K538">
-    <cfRule type="expression" dxfId="303" priority="143">
+    <cfRule type="expression" dxfId="304" priority="143">
       <formula>J537=$G537</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A537:A538">
-    <cfRule type="expression" dxfId="302" priority="144">
+    <cfRule type="expression" dxfId="303" priority="144">
       <formula>F537&lt;&gt;G537</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H384:I385">
-    <cfRule type="expression" dxfId="301" priority="139">
+    <cfRule type="expression" dxfId="302" priority="139">
       <formula>H384=$F384</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J384:K385">
-    <cfRule type="expression" dxfId="300" priority="140">
+    <cfRule type="expression" dxfId="301" priority="140">
       <formula>J384=$G384</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A384:A385">
-    <cfRule type="expression" dxfId="299" priority="141">
+    <cfRule type="expression" dxfId="300" priority="141">
       <formula>F384&lt;&gt;G384</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:I46">
-    <cfRule type="expression" dxfId="298" priority="136">
+    <cfRule type="expression" dxfId="299" priority="136">
       <formula>H45=$F45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:K46">
-    <cfRule type="expression" dxfId="297" priority="137">
+    <cfRule type="expression" dxfId="298" priority="137">
       <formula>J45=$G45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="expression" dxfId="296" priority="138">
+    <cfRule type="expression" dxfId="297" priority="138">
       <formula>F45&lt;&gt;G45</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H868:I868">
-    <cfRule type="expression" dxfId="295" priority="133">
-      <formula>H868=$F868</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J868:K868">
-    <cfRule type="expression" dxfId="294" priority="134">
-      <formula>J868=$G868</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A868">
-    <cfRule type="expression" dxfId="293" priority="135">
-      <formula>F868&lt;&gt;G868</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H869:I870">
-    <cfRule type="expression" dxfId="292" priority="130">
-      <formula>H869=$F869</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J869:K870">
-    <cfRule type="expression" dxfId="291" priority="131">
-      <formula>J869=$G869</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A869:A870">
-    <cfRule type="expression" dxfId="290" priority="132">
-      <formula>F869&lt;&gt;G869</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H860:I860">
-    <cfRule type="expression" dxfId="289" priority="127">
-      <formula>H860=$F860</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J860:K860">
-    <cfRule type="expression" dxfId="288" priority="128">
-      <formula>J860=$G860</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A860">
-    <cfRule type="expression" dxfId="287" priority="129">
-      <formula>F860&lt;&gt;G860</formula>
+  <conditionalFormatting sqref="H870:I870">
+    <cfRule type="expression" dxfId="296" priority="133">
+      <formula>H870=$F870</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J870:K870">
+    <cfRule type="expression" dxfId="295" priority="134">
+      <formula>J870=$G870</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A870">
+    <cfRule type="expression" dxfId="294" priority="135">
+      <formula>F870&lt;&gt;G870</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H871:I872">
+    <cfRule type="expression" dxfId="293" priority="130">
+      <formula>H871=$F871</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J871:K872">
+    <cfRule type="expression" dxfId="292" priority="131">
+      <formula>J871=$G871</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A871:A872">
+    <cfRule type="expression" dxfId="291" priority="132">
+      <formula>F871&lt;&gt;G871</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H862:I862">
+    <cfRule type="expression" dxfId="290" priority="127">
+      <formula>H862=$F862</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J862:K862">
+    <cfRule type="expression" dxfId="289" priority="128">
+      <formula>J862=$G862</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A862">
+    <cfRule type="expression" dxfId="288" priority="129">
+      <formula>F862&lt;&gt;G862</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H536:I536">
-    <cfRule type="expression" dxfId="286" priority="124">
+    <cfRule type="expression" dxfId="287" priority="124">
       <formula>H536=$F536</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J536:K536">
-    <cfRule type="expression" dxfId="285" priority="125">
+    <cfRule type="expression" dxfId="286" priority="125">
       <formula>J536=$G536</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A536">
-    <cfRule type="expression" dxfId="284" priority="126">
+    <cfRule type="expression" dxfId="285" priority="126">
       <formula>F536&lt;&gt;G536</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141:I141">
-    <cfRule type="expression" dxfId="283" priority="121">
+    <cfRule type="expression" dxfId="284" priority="121">
       <formula>H141=$F141</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J141:K141">
-    <cfRule type="expression" dxfId="282" priority="122">
+    <cfRule type="expression" dxfId="283" priority="122">
       <formula>J141=$G141</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141">
-    <cfRule type="expression" dxfId="281" priority="123">
+    <cfRule type="expression" dxfId="282" priority="123">
       <formula>F141&lt;&gt;G141</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:I121">
-    <cfRule type="expression" dxfId="280" priority="118">
+    <cfRule type="expression" dxfId="281" priority="118">
       <formula>H121=$F121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J121:K121">
-    <cfRule type="expression" dxfId="279" priority="119">
+    <cfRule type="expression" dxfId="280" priority="119">
       <formula>J121=$G121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="expression" dxfId="278" priority="120">
+    <cfRule type="expression" dxfId="279" priority="120">
       <formula>F121&lt;&gt;G121</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H420:I420">
-    <cfRule type="expression" dxfId="277" priority="115">
+    <cfRule type="expression" dxfId="278" priority="115">
       <formula>H420=$F420</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J420:K420">
-    <cfRule type="expression" dxfId="276" priority="116">
+    <cfRule type="expression" dxfId="277" priority="116">
       <formula>J420=$G420</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A420">
-    <cfRule type="expression" dxfId="275" priority="117">
+    <cfRule type="expression" dxfId="276" priority="117">
       <formula>F420&lt;&gt;G420</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H421:I421">
-    <cfRule type="expression" dxfId="274" priority="112">
+    <cfRule type="expression" dxfId="275" priority="112">
       <formula>H421=$F421</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J421:K421">
-    <cfRule type="expression" dxfId="273" priority="113">
+    <cfRule type="expression" dxfId="274" priority="113">
       <formula>J421=$G421</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A421">
-    <cfRule type="expression" dxfId="272" priority="114">
+    <cfRule type="expression" dxfId="273" priority="114">
       <formula>F421&lt;&gt;G421</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H422:I422">
-    <cfRule type="expression" dxfId="271" priority="109">
+    <cfRule type="expression" dxfId="272" priority="109">
       <formula>H422=$F422</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J422:K422">
-    <cfRule type="expression" dxfId="270" priority="110">
+    <cfRule type="expression" dxfId="271" priority="110">
       <formula>J422=$G422</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A422">
-    <cfRule type="expression" dxfId="269" priority="111">
+    <cfRule type="expression" dxfId="270" priority="111">
       <formula>F422&lt;&gt;G422</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H423:I423">
-    <cfRule type="expression" dxfId="268" priority="106">
+    <cfRule type="expression" dxfId="269" priority="106">
       <formula>H423=$F423</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J423:K423">
-    <cfRule type="expression" dxfId="267" priority="107">
+    <cfRule type="expression" dxfId="268" priority="107">
       <formula>J423=$G423</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A423">
-    <cfRule type="expression" dxfId="266" priority="108">
+    <cfRule type="expression" dxfId="267" priority="108">
       <formula>F423&lt;&gt;G423</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H425:I425 H430:I430">
-    <cfRule type="expression" dxfId="265" priority="103">
+    <cfRule type="expression" dxfId="266" priority="103">
       <formula>H425=$F425</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J425:K425 J430:K430">
-    <cfRule type="expression" dxfId="264" priority="104">
+    <cfRule type="expression" dxfId="265" priority="104">
       <formula>J425=$G425</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A425 A430">
-    <cfRule type="expression" dxfId="263" priority="105">
+    <cfRule type="expression" dxfId="264" priority="105">
       <formula>F425&lt;&gt;G425</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H426:I426">
-    <cfRule type="expression" dxfId="262" priority="100">
+    <cfRule type="expression" dxfId="263" priority="100">
       <formula>H426=$F426</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J426:K426">
-    <cfRule type="expression" dxfId="261" priority="101">
+    <cfRule type="expression" dxfId="262" priority="101">
       <formula>J426=$G426</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A426">
-    <cfRule type="expression" dxfId="260" priority="102">
+    <cfRule type="expression" dxfId="261" priority="102">
       <formula>F426&lt;&gt;G426</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H427:I427">
-    <cfRule type="expression" dxfId="259" priority="97">
+    <cfRule type="expression" dxfId="260" priority="97">
       <formula>H427=$F427</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J427:K427">
-    <cfRule type="expression" dxfId="258" priority="98">
+    <cfRule type="expression" dxfId="259" priority="98">
       <formula>J427=$G427</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A427">
-    <cfRule type="expression" dxfId="257" priority="99">
+    <cfRule type="expression" dxfId="258" priority="99">
       <formula>F427&lt;&gt;G427</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H428:I428">
-    <cfRule type="expression" dxfId="256" priority="94">
+    <cfRule type="expression" dxfId="257" priority="94">
       <formula>H428=$F428</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J428:K428">
-    <cfRule type="expression" dxfId="255" priority="95">
+    <cfRule type="expression" dxfId="256" priority="95">
       <formula>J428=$G428</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A428">
-    <cfRule type="expression" dxfId="254" priority="96">
+    <cfRule type="expression" dxfId="255" priority="96">
       <formula>F428&lt;&gt;G428</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H429:I429">
-    <cfRule type="expression" dxfId="253" priority="91">
+    <cfRule type="expression" dxfId="254" priority="91">
       <formula>H429=$F429</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J429:K429">
-    <cfRule type="expression" dxfId="252" priority="92">
+    <cfRule type="expression" dxfId="253" priority="92">
       <formula>J429=$G429</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A429">
-    <cfRule type="expression" dxfId="251" priority="93">
+    <cfRule type="expression" dxfId="252" priority="93">
       <formula>F429&lt;&gt;G429</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H446:I446 H451:I451">
-    <cfRule type="expression" dxfId="250" priority="88">
+    <cfRule type="expression" dxfId="251" priority="88">
       <formula>H446=$F446</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J446:K446 J451:K451">
-    <cfRule type="expression" dxfId="249" priority="89">
+    <cfRule type="expression" dxfId="250" priority="89">
       <formula>J446=$G446</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A446 A451">
-    <cfRule type="expression" dxfId="248" priority="90">
+    <cfRule type="expression" dxfId="249" priority="90">
       <formula>F446&lt;&gt;G446</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H447:I447">
-    <cfRule type="expression" dxfId="247" priority="85">
+    <cfRule type="expression" dxfId="248" priority="85">
       <formula>H447=$F447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J447:K447">
-    <cfRule type="expression" dxfId="246" priority="86">
+    <cfRule type="expression" dxfId="247" priority="86">
       <formula>J447=$G447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A447">
-    <cfRule type="expression" dxfId="245" priority="87">
+    <cfRule type="expression" dxfId="246" priority="87">
       <formula>F447&lt;&gt;G447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H448:I448">
-    <cfRule type="expression" dxfId="244" priority="82">
+    <cfRule type="expression" dxfId="245" priority="82">
       <formula>H448=$F448</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J448:K448">
-    <cfRule type="expression" dxfId="243" priority="83">
+    <cfRule type="expression" dxfId="244" priority="83">
       <formula>J448=$G448</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A448">
-    <cfRule type="expression" dxfId="242" priority="84">
+    <cfRule type="expression" dxfId="243" priority="84">
       <formula>F448&lt;&gt;G448</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H449:I449">
-    <cfRule type="expression" dxfId="241" priority="79">
+    <cfRule type="expression" dxfId="242" priority="79">
       <formula>H449=$F449</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J449:K449">
-    <cfRule type="expression" dxfId="240" priority="80">
+    <cfRule type="expression" dxfId="241" priority="80">
       <formula>J449=$G449</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A449">
-    <cfRule type="expression" dxfId="239" priority="81">
+    <cfRule type="expression" dxfId="240" priority="81">
       <formula>F449&lt;&gt;G449</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H450:I450">
-    <cfRule type="expression" dxfId="238" priority="76">
+    <cfRule type="expression" dxfId="239" priority="76">
       <formula>H450=$F450</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J450:K450">
-    <cfRule type="expression" dxfId="237" priority="77">
+    <cfRule type="expression" dxfId="238" priority="77">
       <formula>J450=$G450</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A450">
-    <cfRule type="expression" dxfId="236" priority="78">
+    <cfRule type="expression" dxfId="237" priority="78">
       <formula>F450&lt;&gt;G450</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H452:I452 H457:I457">
-    <cfRule type="expression" dxfId="235" priority="73">
+    <cfRule type="expression" dxfId="236" priority="73">
       <formula>H452=$F452</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J452:K452 J457:K457">
-    <cfRule type="expression" dxfId="234" priority="74">
+    <cfRule type="expression" dxfId="235" priority="74">
       <formula>J452=$G452</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A452 A457">
-    <cfRule type="expression" dxfId="233" priority="75">
+    <cfRule type="expression" dxfId="234" priority="75">
       <formula>F452&lt;&gt;G452</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H453:I453">
-    <cfRule type="expression" dxfId="232" priority="70">
+    <cfRule type="expression" dxfId="233" priority="70">
       <formula>H453=$F453</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J453:K453">
-    <cfRule type="expression" dxfId="231" priority="71">
+    <cfRule type="expression" dxfId="232" priority="71">
       <formula>J453=$G453</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A453">
-    <cfRule type="expression" dxfId="230" priority="72">
+    <cfRule type="expression" dxfId="231" priority="72">
       <formula>F453&lt;&gt;G453</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H454:I454">
-    <cfRule type="expression" dxfId="229" priority="67">
+    <cfRule type="expression" dxfId="230" priority="67">
       <formula>H454=$F454</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J454:K454">
-    <cfRule type="expression" dxfId="228" priority="68">
+    <cfRule type="expression" dxfId="229" priority="68">
       <formula>J454=$G454</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A454">
-    <cfRule type="expression" dxfId="227" priority="69">
+    <cfRule type="expression" dxfId="228" priority="69">
       <formula>F454&lt;&gt;G454</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H455:I455">
-    <cfRule type="expression" dxfId="226" priority="64">
+    <cfRule type="expression" dxfId="227" priority="64">
       <formula>H455=$F455</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J455:K455">
-    <cfRule type="expression" dxfId="225" priority="65">
+    <cfRule type="expression" dxfId="226" priority="65">
       <formula>J455=$G455</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A455">
-    <cfRule type="expression" dxfId="224" priority="66">
+    <cfRule type="expression" dxfId="225" priority="66">
       <formula>F455&lt;&gt;G455</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H456:I456">
-    <cfRule type="expression" dxfId="223" priority="61">
+    <cfRule type="expression" dxfId="224" priority="61">
       <formula>H456=$F456</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J456:K456">
-    <cfRule type="expression" dxfId="222" priority="62">
+    <cfRule type="expression" dxfId="223" priority="62">
       <formula>J456=$G456</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A456">
-    <cfRule type="expression" dxfId="221" priority="63">
+    <cfRule type="expression" dxfId="222" priority="63">
       <formula>F456&lt;&gt;G456</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H473:I473 H478:I478">
-    <cfRule type="expression" dxfId="220" priority="58">
+    <cfRule type="expression" dxfId="221" priority="58">
       <formula>H473=$F473</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J473:K473 J478:K478">
-    <cfRule type="expression" dxfId="219" priority="59">
+    <cfRule type="expression" dxfId="220" priority="59">
       <formula>J473=$G473</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A473 A478">
-    <cfRule type="expression" dxfId="218" priority="60">
+    <cfRule type="expression" dxfId="219" priority="60">
       <formula>F473&lt;&gt;G473</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H474:I474">
-    <cfRule type="expression" dxfId="217" priority="55">
+    <cfRule type="expression" dxfId="218" priority="55">
       <formula>H474=$F474</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J474:K474">
-    <cfRule type="expression" dxfId="216" priority="56">
+    <cfRule type="expression" dxfId="217" priority="56">
       <formula>J474=$G474</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A474">
-    <cfRule type="expression" dxfId="215" priority="57">
+    <cfRule type="expression" dxfId="216" priority="57">
       <formula>F474&lt;&gt;G474</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H475:I475">
-    <cfRule type="expression" dxfId="214" priority="52">
+    <cfRule type="expression" dxfId="215" priority="52">
       <formula>H475=$F475</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J475:K475">
-    <cfRule type="expression" dxfId="213" priority="53">
+    <cfRule type="expression" dxfId="214" priority="53">
       <formula>J475=$G475</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A475">
-    <cfRule type="expression" dxfId="212" priority="54">
+    <cfRule type="expression" dxfId="213" priority="54">
       <formula>F475&lt;&gt;G475</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H476:I476">
-    <cfRule type="expression" dxfId="211" priority="49">
+    <cfRule type="expression" dxfId="212" priority="49">
       <formula>H476=$F476</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J476:K476">
-    <cfRule type="expression" dxfId="210" priority="50">
+    <cfRule type="expression" dxfId="211" priority="50">
       <formula>J476=$G476</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A476">
-    <cfRule type="expression" dxfId="209" priority="51">
+    <cfRule type="expression" dxfId="210" priority="51">
       <formula>F476&lt;&gt;G476</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H477:I477">
-    <cfRule type="expression" dxfId="208" priority="46">
+    <cfRule type="expression" dxfId="209" priority="46">
       <formula>H477=$F477</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J477:K477">
-    <cfRule type="expression" dxfId="207" priority="47">
+    <cfRule type="expression" dxfId="208" priority="47">
       <formula>J477=$G477</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A477">
-    <cfRule type="expression" dxfId="206" priority="48">
+    <cfRule type="expression" dxfId="207" priority="48">
       <formula>F477&lt;&gt;G477</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H479:I479 H484:I484">
-    <cfRule type="expression" dxfId="205" priority="43">
+    <cfRule type="expression" dxfId="206" priority="43">
       <formula>H479=$F479</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J479:K479 J484:K484">
-    <cfRule type="expression" dxfId="204" priority="44">
+    <cfRule type="expression" dxfId="205" priority="44">
       <formula>J479=$G479</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A479 A484">
-    <cfRule type="expression" dxfId="203" priority="45">
+    <cfRule type="expression" dxfId="204" priority="45">
       <formula>F479&lt;&gt;G479</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H480:I480">
-    <cfRule type="expression" dxfId="202" priority="40">
+    <cfRule type="expression" dxfId="203" priority="40">
       <formula>H480=$F480</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J480:K480">
-    <cfRule type="expression" dxfId="201" priority="41">
+    <cfRule type="expression" dxfId="202" priority="41">
       <formula>J480=$G480</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A480">
-    <cfRule type="expression" dxfId="200" priority="42">
+    <cfRule type="expression" dxfId="201" priority="42">
       <formula>F480&lt;&gt;G480</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H481:I481">
-    <cfRule type="expression" dxfId="199" priority="37">
+    <cfRule type="expression" dxfId="200" priority="37">
       <formula>H481=$F481</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J481:K481">
-    <cfRule type="expression" dxfId="198" priority="38">
+    <cfRule type="expression" dxfId="199" priority="38">
       <formula>J481=$G481</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A481">
-    <cfRule type="expression" dxfId="197" priority="39">
+    <cfRule type="expression" dxfId="198" priority="39">
       <formula>F481&lt;&gt;G481</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H482:I482">
-    <cfRule type="expression" dxfId="196" priority="34">
+    <cfRule type="expression" dxfId="197" priority="34">
       <formula>H482=$F482</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J482:K482">
-    <cfRule type="expression" dxfId="195" priority="35">
+    <cfRule type="expression" dxfId="196" priority="35">
       <formula>J482=$G482</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A482">
-    <cfRule type="expression" dxfId="194" priority="36">
+    <cfRule type="expression" dxfId="195" priority="36">
       <formula>F482&lt;&gt;G482</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H483:I483">
-    <cfRule type="expression" dxfId="193" priority="31">
+    <cfRule type="expression" dxfId="194" priority="31">
       <formula>H483=$F483</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J483:K483">
-    <cfRule type="expression" dxfId="192" priority="32">
+    <cfRule type="expression" dxfId="193" priority="32">
       <formula>J483=$G483</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A483">
-    <cfRule type="expression" dxfId="191" priority="33">
+    <cfRule type="expression" dxfId="192" priority="33">
       <formula>F483&lt;&gt;G483</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H496:I496 H501:I501">
-    <cfRule type="expression" dxfId="190" priority="28">
+    <cfRule type="expression" dxfId="191" priority="28">
       <formula>H496=$F496</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J496:K496 J501:K501">
-    <cfRule type="expression" dxfId="189" priority="29">
+    <cfRule type="expression" dxfId="190" priority="29">
       <formula>J496=$G496</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A496 A501">
-    <cfRule type="expression" dxfId="188" priority="30">
+    <cfRule type="expression" dxfId="189" priority="30">
       <formula>F496&lt;&gt;G496</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H497:I497">
-    <cfRule type="expression" dxfId="187" priority="25">
+    <cfRule type="expression" dxfId="188" priority="25">
       <formula>H497=$F497</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J497:K497">
-    <cfRule type="expression" dxfId="186" priority="26">
+    <cfRule type="expression" dxfId="187" priority="26">
       <formula>J497=$G497</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A497">
-    <cfRule type="expression" dxfId="185" priority="27">
+    <cfRule type="expression" dxfId="186" priority="27">
       <formula>F497&lt;&gt;G497</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H498:I498">
-    <cfRule type="expression" dxfId="184" priority="22">
+    <cfRule type="expression" dxfId="185" priority="22">
       <formula>H498=$F498</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J498:K498">
-    <cfRule type="expression" dxfId="183" priority="23">
+    <cfRule type="expression" dxfId="184" priority="23">
       <formula>J498=$G498</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A498">
-    <cfRule type="expression" dxfId="182" priority="24">
+    <cfRule type="expression" dxfId="183" priority="24">
       <formula>F498&lt;&gt;G498</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H499:I499">
-    <cfRule type="expression" dxfId="181" priority="19">
+    <cfRule type="expression" dxfId="182" priority="19">
       <formula>H499=$F499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J499:K499">
-    <cfRule type="expression" dxfId="180" priority="20">
+    <cfRule type="expression" dxfId="181" priority="20">
       <formula>J499=$G499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A499">
-    <cfRule type="expression" dxfId="179" priority="21">
+    <cfRule type="expression" dxfId="180" priority="21">
       <formula>F499&lt;&gt;G499</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H500:I500">
-    <cfRule type="expression" dxfId="178" priority="16">
+    <cfRule type="expression" dxfId="179" priority="16">
       <formula>H500=$F500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J500:K500">
-    <cfRule type="expression" dxfId="177" priority="17">
+    <cfRule type="expression" dxfId="178" priority="17">
       <formula>J500=$G500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A500">
-    <cfRule type="expression" dxfId="176" priority="18">
+    <cfRule type="expression" dxfId="177" priority="18">
       <formula>F500&lt;&gt;G500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H502:I502 H507:I507">
-    <cfRule type="expression" dxfId="175" priority="13">
+    <cfRule type="expression" dxfId="176" priority="13">
       <formula>H502=$F502</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J502:K502 J507:K507">
-    <cfRule type="expression" dxfId="174" priority="14">
+    <cfRule type="expression" dxfId="175" priority="14">
       <formula>J502=$G502</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A502 A507">
-    <cfRule type="expression" dxfId="173" priority="15">
+    <cfRule type="expression" dxfId="174" priority="15">
       <formula>F502&lt;&gt;G502</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H503:I503">
-    <cfRule type="expression" dxfId="172" priority="10">
+    <cfRule type="expression" dxfId="173" priority="10">
       <formula>H503=$F503</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J503:K503">
-    <cfRule type="expression" dxfId="171" priority="11">
+    <cfRule type="expression" dxfId="172" priority="11">
       <formula>J503=$G503</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A503">
-    <cfRule type="expression" dxfId="170" priority="12">
+    <cfRule type="expression" dxfId="171" priority="12">
       <formula>F503&lt;&gt;G503</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H504:I504">
-    <cfRule type="expression" dxfId="169" priority="7">
+    <cfRule type="expression" dxfId="170" priority="7">
       <formula>H504=$F504</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J504:K504">
-    <cfRule type="expression" dxfId="168" priority="8">
+    <cfRule type="expression" dxfId="169" priority="8">
       <formula>J504=$G504</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A504">
-    <cfRule type="expression" dxfId="167" priority="9">
+    <cfRule type="expression" dxfId="168" priority="9">
       <formula>F504&lt;&gt;G504</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H505:I505">
-    <cfRule type="expression" dxfId="166" priority="4">
+    <cfRule type="expression" dxfId="167" priority="4">
       <formula>H505=$F505</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J505:K505">
-    <cfRule type="expression" dxfId="165" priority="5">
+    <cfRule type="expression" dxfId="166" priority="5">
       <formula>J505=$G505</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A505">
-    <cfRule type="expression" dxfId="164" priority="6">
+    <cfRule type="expression" dxfId="165" priority="6">
       <formula>F505&lt;&gt;G505</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H506:I506">
-    <cfRule type="expression" dxfId="163" priority="1">
+    <cfRule type="expression" dxfId="164" priority="1">
       <formula>H506=$F506</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J506:K506">
-    <cfRule type="expression" dxfId="162" priority="2">
+    <cfRule type="expression" dxfId="163" priority="2">
       <formula>J506=$G506</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A506">
-    <cfRule type="expression" dxfId="161" priority="3">
+    <cfRule type="expression" dxfId="162" priority="3">
       <formula>F506&lt;&gt;G506</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27312,10 +27365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF60C891-CC4F-4B7B-B95E-F7763AC250C3}">
-  <dimension ref="A1:A154"/>
+  <dimension ref="A1:A156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27332,42 +27385,42 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -27377,477 +27430,477 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
@@ -27892,97 +27945,97 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
@@ -27992,714 +28045,729 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1812</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1814</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1810</v>
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1807</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="18" t="s">
+      <c r="A142" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="18" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="18" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="19" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="19" t="s">
         <v>1242</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>609</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1386</v>
+        <v>583</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1052</v>
+        <v>609</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1054</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>1313</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <conditionalFormatting sqref="A149">
+  <conditionalFormatting sqref="A151">
+    <cfRule type="expression" dxfId="161" priority="134">
+      <formula>F1048545&lt;&gt;G1048545</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150">
     <cfRule type="expression" dxfId="160" priority="133">
-      <formula>F1048545&lt;&gt;G1048545</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A148">
-    <cfRule type="expression" dxfId="159" priority="132">
       <formula>F1048552&lt;&gt;G1048552</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
+    <cfRule type="expression" dxfId="159" priority="130">
+      <formula>F4&lt;&gt;G4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
     <cfRule type="expression" dxfId="158" priority="129">
+      <formula>F5&lt;&gt;G5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99">
+    <cfRule type="expression" dxfId="157" priority="121">
       <formula>F4&lt;&gt;G4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
-    <cfRule type="expression" dxfId="157" priority="128">
+  <conditionalFormatting sqref="A100">
+    <cfRule type="expression" dxfId="156" priority="120">
       <formula>F5&lt;&gt;G5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="expression" dxfId="156" priority="120">
+  <conditionalFormatting sqref="A12">
+    <cfRule type="expression" dxfId="155" priority="119">
       <formula>F4&lt;&gt;G4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="155" priority="119">
+  <conditionalFormatting sqref="A93">
+    <cfRule type="expression" dxfId="154" priority="118">
+      <formula>F7&lt;&gt;G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="expression" dxfId="153" priority="113">
+      <formula>F8&lt;&gt;G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="expression" dxfId="152" priority="112">
       <formula>F5&lt;&gt;G5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="154" priority="118">
-      <formula>F4&lt;&gt;G4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="expression" dxfId="153" priority="117">
-      <formula>F7&lt;&gt;G7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="expression" dxfId="152" priority="112">
-      <formula>F8&lt;&gt;G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="151" priority="111">
+  <conditionalFormatting sqref="A19">
+    <cfRule type="expression" dxfId="151" priority="110">
       <formula>F5&lt;&gt;G5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
+  <conditionalFormatting sqref="A116">
     <cfRule type="expression" dxfId="150" priority="109">
-      <formula>F5&lt;&gt;G5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A116">
-    <cfRule type="expression" dxfId="149" priority="108">
       <formula>F23&lt;&gt;G23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
+    <cfRule type="expression" dxfId="149" priority="99">
+      <formula>F31&lt;&gt;G31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119">
     <cfRule type="expression" dxfId="148" priority="98">
-      <formula>F31&lt;&gt;G31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
+      <formula>#REF!&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
     <cfRule type="expression" dxfId="147" priority="97">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A120">
+  <conditionalFormatting sqref="A121">
     <cfRule type="expression" dxfId="146" priority="96">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
+  <conditionalFormatting sqref="A122">
     <cfRule type="expression" dxfId="145" priority="95">
+      <formula>F32&lt;&gt;G32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="expression" dxfId="144" priority="94">
+      <formula>F33&lt;&gt;G33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124">
+    <cfRule type="expression" dxfId="143" priority="93">
+      <formula>F34&lt;&gt;G34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125">
+    <cfRule type="expression" dxfId="142" priority="92">
+      <formula>F35&lt;&gt;G35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="expression" dxfId="141" priority="91">
+      <formula>F36&lt;&gt;G36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146">
+    <cfRule type="expression" dxfId="140" priority="353">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122">
-    <cfRule type="expression" dxfId="144" priority="94">
+  <conditionalFormatting sqref="A114:A115">
+    <cfRule type="expression" dxfId="139" priority="354">
       <formula>F32&lt;&gt;G32</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="expression" dxfId="143" priority="93">
-      <formula>F33&lt;&gt;G33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124">
-    <cfRule type="expression" dxfId="142" priority="92">
+  <conditionalFormatting sqref="A68">
+    <cfRule type="expression" dxfId="138" priority="361">
+      <formula>F31&lt;&gt;G31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="expression" dxfId="137" priority="368">
+      <formula>F31&lt;&gt;G31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" dxfId="136" priority="90">
+      <formula>F18&lt;&gt;G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="expression" dxfId="135" priority="371">
       <formula>F34&lt;&gt;G34</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A125">
-    <cfRule type="expression" dxfId="141" priority="91">
-      <formula>F35&lt;&gt;G35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="expression" dxfId="140" priority="90">
-      <formula>F36&lt;&gt;G36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A144">
-    <cfRule type="expression" dxfId="139" priority="352">
+  <conditionalFormatting sqref="A74">
+    <cfRule type="expression" dxfId="134" priority="89">
+      <formula>F15&lt;&gt;G15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="expression" dxfId="133" priority="372">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A114:A115">
-    <cfRule type="expression" dxfId="138" priority="353">
-      <formula>F32&lt;&gt;G32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="expression" dxfId="137" priority="360">
-      <formula>F31&lt;&gt;G31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="136" priority="367">
-      <formula>F31&lt;&gt;G31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="expression" dxfId="135" priority="89">
-      <formula>F18&lt;&gt;G18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="134" priority="370">
-      <formula>F34&lt;&gt;G34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="expression" dxfId="133" priority="88">
-      <formula>F15&lt;&gt;G15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="expression" dxfId="132" priority="371">
-      <formula>#REF!&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A143">
+  <conditionalFormatting sqref="A145">
+    <cfRule type="expression" dxfId="132" priority="88">
+      <formula>F43&lt;&gt;G43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
     <cfRule type="expression" dxfId="131" priority="87">
-      <formula>F43&lt;&gt;G43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
+      <formula>F26&lt;&gt;G26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
     <cfRule type="expression" dxfId="130" priority="86">
-      <formula>F26&lt;&gt;G26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
+      <formula>F4&lt;&gt;G4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129:A131">
     <cfRule type="expression" dxfId="129" priority="85">
+      <formula>F47&lt;&gt;G47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97">
+    <cfRule type="expression" dxfId="128" priority="84">
+      <formula>F25&lt;&gt;G25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:A104">
+    <cfRule type="expression" dxfId="127" priority="83">
+      <formula>F27&lt;&gt;G27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="expression" dxfId="126" priority="82">
+      <formula>F30&lt;&gt;G30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133">
+    <cfRule type="expression" dxfId="125" priority="81">
+      <formula>F50&lt;&gt;G50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:A63">
+    <cfRule type="expression" dxfId="124" priority="80">
+      <formula>F9&lt;&gt;G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
+    <cfRule type="expression" dxfId="123" priority="79">
+      <formula>F48&lt;&gt;G48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="expression" dxfId="122" priority="77">
       <formula>F4&lt;&gt;G4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A129:A131">
-    <cfRule type="expression" dxfId="128" priority="84">
-      <formula>F47&lt;&gt;G47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="expression" dxfId="127" priority="83">
-      <formula>F25&lt;&gt;G25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A104">
-    <cfRule type="expression" dxfId="126" priority="82">
-      <formula>F27&lt;&gt;G27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="125" priority="81">
-      <formula>F30&lt;&gt;G30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133">
-    <cfRule type="expression" dxfId="124" priority="80">
-      <formula>F50&lt;&gt;G50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:A63">
-    <cfRule type="expression" dxfId="123" priority="79">
-      <formula>F9&lt;&gt;G9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136">
-    <cfRule type="expression" dxfId="122" priority="78">
-      <formula>F48&lt;&gt;G48</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A5">
     <cfRule type="expression" dxfId="121" priority="76">
       <formula>F4&lt;&gt;G4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="120" priority="75">
-      <formula>F4&lt;&gt;G4</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="expression" dxfId="119" priority="373">
+    <cfRule type="expression" dxfId="120" priority="374">
       <formula>F6&lt;&gt;G6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="118" priority="375">
+    <cfRule type="expression" dxfId="119" priority="376">
       <formula>F5&lt;&gt;G5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="117" priority="377">
+    <cfRule type="expression" dxfId="118" priority="378">
       <formula>F5&lt;&gt;G5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
+    <cfRule type="expression" dxfId="117" priority="75">
+      <formula>F11&lt;&gt;G11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
     <cfRule type="expression" dxfId="116" priority="74">
-      <formula>F11&lt;&gt;G11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
+      <formula>F10&lt;&gt;G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
     <cfRule type="expression" dxfId="115" priority="73">
-      <formula>F10&lt;&gt;G10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
+      <formula>F12&lt;&gt;G12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132">
     <cfRule type="expression" dxfId="114" priority="72">
-      <formula>F12&lt;&gt;G12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A132">
+      <formula>F57&lt;&gt;G57</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117">
     <cfRule type="expression" dxfId="113" priority="71">
-      <formula>F57&lt;&gt;G57</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117">
-    <cfRule type="expression" dxfId="112" priority="70">
       <formula>F46&lt;&gt;G46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="expression" dxfId="111" priority="380">
+    <cfRule type="expression" dxfId="112" priority="381">
       <formula>F34&lt;&gt;G34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
+    <cfRule type="expression" dxfId="111" priority="70">
+      <formula>F55&lt;&gt;G55</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
     <cfRule type="expression" dxfId="110" priority="69">
-      <formula>F55&lt;&gt;G55</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
+      <formula>F26&lt;&gt;G26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
     <cfRule type="expression" dxfId="109" priority="68">
       <formula>F26&lt;&gt;G26</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
+  <conditionalFormatting sqref="A91">
     <cfRule type="expression" dxfId="108" priority="67">
-      <formula>F26&lt;&gt;G26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="107" priority="66">
       <formula>F30&lt;&gt;G30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="expression" dxfId="106" priority="62">
+    <cfRule type="expression" dxfId="107" priority="63">
       <formula>F31&lt;&gt;G31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:A113">
-    <cfRule type="expression" dxfId="105" priority="383">
+    <cfRule type="expression" dxfId="106" priority="384">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A73">
-    <cfRule type="expression" dxfId="104" priority="385">
+    <cfRule type="expression" dxfId="105" priority="386">
       <formula>F32&lt;&gt;G32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:A71">
-    <cfRule type="expression" dxfId="103" priority="386">
+    <cfRule type="expression" dxfId="104" priority="387">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:A81">
-    <cfRule type="expression" dxfId="102" priority="389">
+    <cfRule type="expression" dxfId="103" priority="390">
       <formula>F35&lt;&gt;G35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
+    <cfRule type="expression" dxfId="102" priority="62">
+      <formula>F27&lt;&gt;G27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
     <cfRule type="expression" dxfId="101" priority="61">
-      <formula>F27&lt;&gt;G27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+      <formula>F8&lt;&gt;G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
     <cfRule type="expression" dxfId="100" priority="60">
-      <formula>F8&lt;&gt;G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="expression" dxfId="99" priority="59">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="expression" dxfId="98" priority="390">
+    <cfRule type="expression" dxfId="99" priority="391">
       <formula>F31&lt;&gt;G31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
+    <cfRule type="expression" dxfId="98" priority="59">
+      <formula>#REF!&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142 A139:A140">
     <cfRule type="expression" dxfId="97" priority="58">
-      <formula>#REF!&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A140 A137:A138">
+      <formula>F89&lt;&gt;G89</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86:A87">
     <cfRule type="expression" dxfId="96" priority="57">
-      <formula>F89&lt;&gt;G89</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86:A87">
+      <formula>F35&lt;&gt;G35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89:A90">
     <cfRule type="expression" dxfId="95" priority="56">
+      <formula>F37&lt;&gt;G37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:A84">
+    <cfRule type="expression" dxfId="94" priority="55">
       <formula>F35&lt;&gt;G35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89:A90">
-    <cfRule type="expression" dxfId="94" priority="55">
-      <formula>F37&lt;&gt;G37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83:A84">
+  <conditionalFormatting sqref="A64:A65">
     <cfRule type="expression" dxfId="93" priority="54">
-      <formula>F35&lt;&gt;G35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:A65">
+      <formula>F20&lt;&gt;G20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
     <cfRule type="expression" dxfId="92" priority="53">
-      <formula>F20&lt;&gt;G20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
+      <formula>F55&lt;&gt;G55</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A10">
     <cfRule type="expression" dxfId="91" priority="52">
-      <formula>F55&lt;&gt;G55</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A10">
+      <formula>F9&lt;&gt;G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
     <cfRule type="expression" dxfId="90" priority="51">
-      <formula>F9&lt;&gt;G9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
+      <formula>F50&lt;&gt;G50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A156">
     <cfRule type="expression" dxfId="89" priority="50">
-      <formula>F50&lt;&gt;G50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154">
+      <formula>F101&lt;&gt;G101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134">
     <cfRule type="expression" dxfId="88" priority="49">
-      <formula>F101&lt;&gt;G101</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134">
-    <cfRule type="expression" dxfId="87" priority="48">
       <formula>F86&lt;&gt;G86</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A139">
-    <cfRule type="expression" dxfId="86" priority="46">
+  <conditionalFormatting sqref="A141">
+    <cfRule type="expression" dxfId="87" priority="47">
       <formula>F91&lt;&gt;G91</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
+    <cfRule type="expression" dxfId="86" priority="45">
+      <formula>F41&lt;&gt;G41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88">
     <cfRule type="expression" dxfId="85" priority="44">
-      <formula>F41&lt;&gt;G41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
+      <formula>F44&lt;&gt;G44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:A15">
     <cfRule type="expression" dxfId="84" priority="43">
-      <formula>F44&lt;&gt;G44</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:A15">
+      <formula>F13&lt;&gt;G13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
     <cfRule type="expression" dxfId="83" priority="42">
       <formula>F13&lt;&gt;G13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
+  <conditionalFormatting sqref="A32">
     <cfRule type="expression" dxfId="82" priority="41">
-      <formula>F13&lt;&gt;G13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+      <formula>F22&lt;&gt;G22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
     <cfRule type="expression" dxfId="81" priority="40">
+      <formula>F23&lt;&gt;G23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="expression" dxfId="80" priority="39">
+      <formula>F24&lt;&gt;G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="expression" dxfId="79" priority="38">
+      <formula>F25&lt;&gt;G25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="78" priority="37">
+      <formula>F26&lt;&gt;G26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="77" priority="36">
+      <formula>#REF!&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="expression" dxfId="76" priority="35">
+      <formula>F27&lt;&gt;G27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="expression" dxfId="75" priority="34">
+      <formula>F28&lt;&gt;G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="74" priority="33">
+      <formula>F29&lt;&gt;G29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="expression" dxfId="73" priority="32">
+      <formula>F30&lt;&gt;G30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118:A120">
+    <cfRule type="expression" dxfId="72" priority="493">
+      <formula>F24&lt;&gt;G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="expression" dxfId="71" priority="495">
+      <formula>#REF!&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="expression" dxfId="70" priority="31">
       <formula>F22&lt;&gt;G22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="expression" dxfId="80" priority="39">
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="69" priority="30">
       <formula>F23&lt;&gt;G23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="79" priority="38">
+  <conditionalFormatting sqref="A24">
+    <cfRule type="expression" dxfId="68" priority="29">
       <formula>F24&lt;&gt;G24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="78" priority="37">
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="67" priority="28">
       <formula>F25&lt;&gt;G25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="77" priority="36">
+  <conditionalFormatting sqref="A26">
+    <cfRule type="expression" dxfId="66" priority="27">
       <formula>F26&lt;&gt;G26</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="76" priority="35">
+  <conditionalFormatting sqref="A27">
+    <cfRule type="expression" dxfId="65" priority="26">
+      <formula>F27&lt;&gt;G27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="expression" dxfId="64" priority="25">
+      <formula>F28&lt;&gt;G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="63" priority="24">
+      <formula>F29&lt;&gt;G29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="62" priority="23">
+      <formula>F30&lt;&gt;G30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="expression" dxfId="61" priority="22">
+      <formula>F31&lt;&gt;G31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122">
+    <cfRule type="expression" dxfId="60" priority="496">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="75" priority="34">
+  <conditionalFormatting sqref="A123:A126">
+    <cfRule type="expression" dxfId="59" priority="497">
       <formula>F27&lt;&gt;G27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="expression" dxfId="74" priority="33">
-      <formula>F28&lt;&gt;G28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="73" priority="32">
-      <formula>F29&lt;&gt;G29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="expression" dxfId="72" priority="31">
-      <formula>F30&lt;&gt;G30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118:A120">
-    <cfRule type="expression" dxfId="71" priority="492">
-      <formula>F24&lt;&gt;G24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
-    <cfRule type="expression" dxfId="70" priority="494">
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" dxfId="58" priority="21">
+      <formula>F42&lt;&gt;G42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="expression" dxfId="57" priority="20">
+      <formula>F43&lt;&gt;G43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="56" priority="19">
+      <formula>F44&lt;&gt;G44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="expression" dxfId="55" priority="18">
+      <formula>F45&lt;&gt;G45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="expression" dxfId="54" priority="17">
+      <formula>F46&lt;&gt;G46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="expression" dxfId="53" priority="16">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="69" priority="30">
-      <formula>F22&lt;&gt;G22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="68" priority="29">
-      <formula>F23&lt;&gt;G23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="67" priority="28">
-      <formula>F24&lt;&gt;G24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="66" priority="27">
-      <formula>F25&lt;&gt;G25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="65" priority="26">
-      <formula>F26&lt;&gt;G26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="64" priority="25">
-      <formula>F27&lt;&gt;G27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="63" priority="24">
-      <formula>F28&lt;&gt;G28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="62" priority="23">
-      <formula>F29&lt;&gt;G29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="61" priority="22">
-      <formula>F30&lt;&gt;G30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="60" priority="21">
-      <formula>F31&lt;&gt;G31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A122">
-    <cfRule type="expression" dxfId="59" priority="495">
-      <formula>#REF!&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123:A126">
-    <cfRule type="expression" dxfId="58" priority="496">
-      <formula>F27&lt;&gt;G27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="57" priority="20">
+  <conditionalFormatting sqref="A58">
+    <cfRule type="expression" dxfId="52" priority="15">
+      <formula>F47&lt;&gt;G47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="51" priority="14">
+      <formula>F48&lt;&gt;G48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="expression" dxfId="50" priority="13">
+      <formula>F49&lt;&gt;G49</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="expression" dxfId="49" priority="12">
+      <formula>F50&lt;&gt;G50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:A67">
+    <cfRule type="expression" dxfId="48" priority="499">
+      <formula>F20&lt;&gt;G20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="47" priority="11">
       <formula>F42&lt;&gt;G42</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="56" priority="19">
+  <conditionalFormatting sqref="A43">
+    <cfRule type="expression" dxfId="46" priority="10">
       <formula>F43&lt;&gt;G43</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="55" priority="18">
+  <conditionalFormatting sqref="A44">
+    <cfRule type="expression" dxfId="45" priority="9">
       <formula>F44&lt;&gt;G44</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="expression" dxfId="54" priority="17">
+  <conditionalFormatting sqref="A45">
+    <cfRule type="expression" dxfId="44" priority="8">
       <formula>F45&lt;&gt;G45</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
-    <cfRule type="expression" dxfId="53" priority="16">
+  <conditionalFormatting sqref="A46">
+    <cfRule type="expression" dxfId="43" priority="7">
       <formula>F46&lt;&gt;G46</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="52" priority="15">
-      <formula>#REF!&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="51" priority="14">
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>F47&lt;&gt;G47</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="50" priority="13">
+  <conditionalFormatting sqref="A48">
+    <cfRule type="expression" dxfId="41" priority="5">
       <formula>F48&lt;&gt;G48</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="expression" dxfId="49" priority="12">
+  <conditionalFormatting sqref="A49">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>F49&lt;&gt;G49</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="expression" dxfId="48" priority="11">
+  <conditionalFormatting sqref="A50">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>F50&lt;&gt;G50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A67">
-    <cfRule type="expression" dxfId="47" priority="498">
-      <formula>F20&lt;&gt;G20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="46" priority="10">
-      <formula>F42&lt;&gt;G42</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="expression" dxfId="45" priority="9">
-      <formula>F43&lt;&gt;G43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="expression" dxfId="44" priority="8">
-      <formula>F44&lt;&gt;G44</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="expression" dxfId="43" priority="7">
-      <formula>F45&lt;&gt;G45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="42" priority="6">
+  <conditionalFormatting sqref="A51">
+    <cfRule type="expression" dxfId="38" priority="2">
+      <formula>F51&lt;&gt;G51</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127">
+    <cfRule type="expression" dxfId="37" priority="500">
       <formula>F46&lt;&gt;G46</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="41" priority="5">
-      <formula>F47&lt;&gt;G47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="expression" dxfId="40" priority="4">
-      <formula>F48&lt;&gt;G48</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="39" priority="3">
-      <formula>F49&lt;&gt;G49</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="expression" dxfId="38" priority="2">
-      <formula>F50&lt;&gt;G50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="expression" dxfId="37" priority="1">
-      <formula>F51&lt;&gt;G51</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A127">
-    <cfRule type="expression" dxfId="36" priority="499">
-      <formula>F46&lt;&gt;G46</formula>
+  <conditionalFormatting sqref="A137:A138">
+    <cfRule type="expression" dxfId="36" priority="1">
+      <formula>F137&lt;&gt;G137</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
